--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="359">
   <si>
     <t>44250</t>
   </si>
@@ -992,10 +992,6 @@
   <si>
     <t>259.00 
  2.98 UMA's</t>
-  </si>
-  <si>
-    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
-Sertvicio Vigente para el ejercicio 2020.</t>
   </si>
   <si>
     <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
@@ -1286,7 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1307,9 +1303,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,6 +1329,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1656,7 +1656,7 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1685,7 @@
     <col min="22" max="22" width="40" customWidth="1"/>
     <col min="23" max="23" width="15.5703125" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" customWidth="1"/>
-    <col min="25" max="25" width="28.42578125" customWidth="1"/>
+    <col min="25" max="25" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -1694,38 +1694,38 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1898,108 +1898,108 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
     </row>
     <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2007,48 +2007,48 @@
       <c r="A8" s="7">
         <v>2020</v>
       </c>
-      <c r="B8" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="17">
-        <v>44104</v>
+      <c r="B8" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="16">
+        <v>44196</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="K8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="K8" s="10"/>
       <c r="L8" s="7" t="s">
         <v>234</v>
       </c>
       <c r="M8" s="7"/>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>278</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q8" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>235</v>
       </c>
       <c r="R8" s="7" t="s">
@@ -2057,23 +2057,23 @@
       <c r="S8" s="7">
         <v>1</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="10" t="s">
         <v>246</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W8" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X8" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -2084,11 +2084,11 @@
       <c r="A9" s="7">
         <v>2020</v>
       </c>
-      <c r="B9" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C9" s="17">
-        <v>44104</v>
+      <c r="B9" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="16">
+        <v>44196</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>245</v>
@@ -2096,22 +2096,22 @@
       <c r="E9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="7" t="s">
         <v>243</v>
       </c>
@@ -2123,9 +2123,9 @@
         <v>264</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q9" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>244</v>
       </c>
       <c r="R9" s="7" t="s">
@@ -2134,23 +2134,23 @@
       <c r="S9" s="7">
         <v>1</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="10" t="s">
         <v>247</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W9" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X9" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -2161,11 +2161,11 @@
       <c r="A10" s="7">
         <v>2020</v>
       </c>
-      <c r="B10" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C10" s="17">
-        <v>44104</v>
+      <c r="B10" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C10" s="16">
+        <v>44196</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>248</v>
@@ -2173,7 +2173,7 @@
       <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="19" t="s">
         <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -2182,15 +2182,15 @@
       <c r="H10" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7" t="s">
@@ -2200,9 +2200,9 @@
         <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q10" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q10" s="19" t="s">
         <v>262</v>
       </c>
       <c r="R10" s="7" t="s">
@@ -2211,20 +2211,20 @@
       <c r="S10" s="7">
         <v>1</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="U10" s="11" t="s">
         <v>263</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W10" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X10" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>311</v>
@@ -2234,11 +2234,11 @@
       <c r="A11" s="7">
         <v>2020</v>
       </c>
-      <c r="B11" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C11" s="17">
-        <v>44104</v>
+      <c r="B11" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C11" s="16">
+        <v>44196</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>249</v>
@@ -2246,8 +2246,8 @@
       <c r="E11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>329</v>
+      <c r="F11" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>266</v>
@@ -2255,13 +2255,13 @@
       <c r="H11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -2271,13 +2271,13 @@
       <c r="N11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="15" t="s">
         <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q11" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q11" s="19" t="s">
         <v>270</v>
       </c>
       <c r="R11" s="7" t="s">
@@ -2286,34 +2286,34 @@
       <c r="S11" s="7">
         <v>1</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="12" t="s">
         <v>272</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W11" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X11" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="100.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2020</v>
       </c>
-      <c r="B12" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C12" s="17">
-        <v>44104</v>
+      <c r="B12" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C12" s="16">
+        <v>44196</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>250</v>
@@ -2321,22 +2321,22 @@
       <c r="E12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>329</v>
+      <c r="F12" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>273</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -2350,9 +2350,9 @@
         <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q12" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q12" s="19" t="s">
         <v>264</v>
       </c>
       <c r="R12" s="7" t="s">
@@ -2361,34 +2361,34 @@
       <c r="S12" s="7">
         <v>1</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="11" t="s">
         <v>275</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W12" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X12" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="100.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="72" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2020</v>
       </c>
-      <c r="B13" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C13" s="17">
-        <v>44104</v>
+      <c r="B13" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C13" s="16">
+        <v>44196</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>251</v>
@@ -2396,22 +2396,22 @@
       <c r="E13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>276</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -2427,7 +2427,7 @@
       <c r="P13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="19" t="s">
         <v>280</v>
       </c>
       <c r="R13" s="7" t="s">
@@ -2436,34 +2436,34 @@
       <c r="S13" s="7">
         <v>1</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="T13" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="U13" s="11" t="s">
         <v>279</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W13" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X13" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2020</v>
       </c>
-      <c r="B14" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C14" s="17">
-        <v>44104</v>
+      <c r="B14" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C14" s="16">
+        <v>44196</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>252</v>
@@ -2471,8 +2471,8 @@
       <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>338</v>
+      <c r="F14" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>282</v>
@@ -2480,13 +2480,13 @@
       <c r="H14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="7" t="s">
         <v>292</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="P14" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="19" t="s">
         <v>285</v>
       </c>
       <c r="R14" s="7" t="s">
@@ -2509,34 +2509,34 @@
       <c r="S14" s="7">
         <v>1</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="T14" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="U14" s="12" t="s">
+      <c r="U14" s="11" t="s">
         <v>286</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W14" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X14" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="100.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="72" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
-      <c r="B15" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C15" s="17">
-        <v>44104</v>
+      <c r="B15" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C15" s="16">
+        <v>44196</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>253</v>
@@ -2544,8 +2544,8 @@
       <c r="E15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>329</v>
+      <c r="F15" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>288</v>
@@ -2553,13 +2553,13 @@
       <c r="H15" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K15" s="11"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="7" t="s">
         <v>268</v>
       </c>
@@ -2571,9 +2571,9 @@
         <v>264</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q15" s="19" t="s">
         <v>290</v>
       </c>
       <c r="R15" s="7" t="s">
@@ -2582,34 +2582,34 @@
       <c r="S15" s="7">
         <v>1</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="12" t="s">
         <v>275</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W15" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X15" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2020</v>
       </c>
-      <c r="B16" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C16" s="17">
-        <v>44104</v>
+      <c r="B16" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C16" s="16">
+        <v>44196</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>254</v>
@@ -2617,24 +2617,24 @@
       <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="16" t="s">
-        <v>345</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
@@ -2646,7 +2646,7 @@
       <c r="P16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="19" t="s">
         <v>294</v>
       </c>
       <c r="R16" s="7" t="s">
@@ -2655,34 +2655,34 @@
       <c r="S16" s="7">
         <v>1</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="T16" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="U16" s="11" t="s">
         <v>286</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W16" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X16" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2020</v>
       </c>
-      <c r="B17" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C17" s="17">
-        <v>44104</v>
+      <c r="B17" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C17" s="16">
+        <v>44196</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>255</v>
@@ -2690,36 +2690,36 @@
       <c r="E17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="I17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="K17" s="11"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="7" t="s">
         <v>298</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q17" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q17" s="19" t="s">
         <v>299</v>
       </c>
       <c r="R17" s="7" t="s">
@@ -2728,34 +2728,34 @@
       <c r="S17" s="7">
         <v>1</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="T17" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="U17" s="11" t="s">
         <v>300</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W17" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X17" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="316.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2020</v>
       </c>
-      <c r="B18" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C18" s="17">
-        <v>44104</v>
+      <c r="B18" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C18" s="16">
+        <v>44196</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>256</v>
@@ -2763,22 +2763,22 @@
       <c r="E18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="13" t="s">
         <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
@@ -2786,15 +2786,15 @@
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>264</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q18" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q18" s="19" t="s">
         <v>304</v>
       </c>
       <c r="R18" s="7" t="s">
@@ -2803,43 +2803,43 @@
       <c r="S18" s="7">
         <v>1</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="T18" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="U18" s="11" t="s">
         <v>301</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W18" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X18" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2020</v>
       </c>
-      <c r="B19" s="17">
-        <v>44013</v>
-      </c>
-      <c r="C19" s="17">
-        <v>44104</v>
+      <c r="B19" s="16">
+        <v>44105</v>
+      </c>
+      <c r="C19" s="16">
+        <v>44196</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>356</v>
+      <c r="F19" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>305</v>
@@ -2847,15 +2847,15 @@
       <c r="H19" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7" t="s">
@@ -2865,9 +2865,9 @@
         <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q19" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q19" s="19" t="s">
         <v>309</v>
       </c>
       <c r="R19" s="7" t="s">
@@ -2876,23 +2876,23 @@
       <c r="S19" s="7">
         <v>1</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="T19" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="U19" s="11" t="s">
         <v>307</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W19" s="8">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="X19" s="8">
-        <v>44114</v>
-      </c>
-      <c r="Y19" s="18" t="s">
-        <v>312</v>
+        <v>44206</v>
+      </c>
+      <c r="Y19" s="17" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2950,169 +2950,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="20" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="20" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="20" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="20" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="20" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="20" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3125,17 +3126,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3149,7 +3152,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD71"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,61 +3291,61 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3355,129 +3358,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="20" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3490,214 +3494,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="20" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="20" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="20" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3710,169 +3717,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="20" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="20" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="20" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="20" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="20" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3886,7 +3896,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,7 +4081,7 @@
         <v>237</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>123</v>
@@ -4142,134 +4152,137 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="20" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4282,214 +4295,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="20" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="20" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="20" t="s">
         <v>167</v>
       </c>
     </row>

--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="398">
   <si>
     <t>44250</t>
   </si>
@@ -752,18 +752,9 @@
     <t>Afirmativa Ficta</t>
   </si>
   <si>
-    <t>5477510 ext. 2265</t>
-  </si>
-  <si>
-    <t>Sin Nombre</t>
-  </si>
-  <si>
     <t>Sin número</t>
   </si>
   <si>
-    <t>Carretera Pachuca-Cd Sahagún, Km. 20, Rancho Luna, Exhacienda de Santa. Bárbara, Municipiode Zempoala Hidalgo</t>
-  </si>
-  <si>
     <t>Zempoala</t>
   </si>
   <si>
@@ -785,9 +776,6 @@
     <t>https://ruts.hidalgo.gob.mx/ver/7534</t>
   </si>
   <si>
-    <t>Certificado Parcial de Estudios y/o carta de pasante</t>
-  </si>
-  <si>
     <t>Constancia Escolar</t>
   </si>
   <si>
@@ -797,38 +785,15 @@
     <t>Curso propedéutico</t>
   </si>
   <si>
-    <t>Ficha par aexámen de admisión</t>
-  </si>
-  <si>
     <t>Historial Académico</t>
   </si>
   <si>
     <t>Reisncripción</t>
   </si>
   <si>
-    <t>Reposición de credencial escolar</t>
-  </si>
-  <si>
-    <t>Titulación Nivel Licenciatura, Ingeniería y Posgrado</t>
-  </si>
-  <si>
-    <t>Certificar el avance académico para los fines que requiera el alumno</t>
-  </si>
-  <si>
-    <t>Estudiantes de la UPPachuca.</t>
-  </si>
-  <si>
-    <t>140.00
- 1.61 UMA's</t>
-  </si>
-  <si>
     <t>20 minutos</t>
   </si>
   <si>
-    <t xml:space="preserve">Periódico oficial del Estado de Hidalgo, Decreto Num. 270, Artículo 56 fracciones I y II  de la Conatitución Política del Estado de Hidalgo y 47 de la Ley Estatal de Derechos.
-</t>
-  </si>
-  <si>
     <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título IV De la calidad de alumna/alumno, Capítulo II De los derechos y obligaciones de las y los estudiantes.</t>
   </si>
   <si>
@@ -838,23 +803,15 @@
     <t>Periódico oficial del Estado de Hidalgo, Decreto Num. 270, Artículo 56 fracciones I y II  de la Constitución Política del Estado de Hidalgo y 47 de la Ley Estatal de Derechos.</t>
   </si>
   <si>
-    <t>32.00 
- 0.37 UMA's</t>
+    <t>https://www.facebook.com/ceetupp/</t>
   </si>
   <si>
     <t>Avalar mediante un documento oficial la situación académica actual del alumnado.</t>
   </si>
   <si>
-    <t>Periódico oficial del Estado de Hidalgo, Decreto Num. 270, Artículo 56 fracciones I y II de la Conatitución Política del Estado de Hidalgo y 47 de la Ley Estatal de Derechos.</t>
-  </si>
-  <si>
     <t>1 día hábil</t>
   </si>
   <si>
-    <t>22.00
-0.25 UMA's</t>
-  </si>
-  <si>
     <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título Sexto De la conclusión de estudios, Capítulo I De la documentación que expide el Departamento de Servicios Escolares.</t>
   </si>
   <si>
@@ -873,39 +830,21 @@
     <t>http://www.upp.edu.mx/serviciosescolares/wp-content/uploads/2016/02/CAT%C3%81LOGO-DE-CONSTANCIAS-E-HISTORIALES.jpg</t>
   </si>
   <si>
-    <t>Brindar un servicio de preparación académica para aspirantes interesados/as en ingresar a las carreras de nivel licenciatura/ingeniería de modalidad cuatrimestral.</t>
-  </si>
-  <si>
-    <t>1466.00        
- 16.87 UMA's</t>
-  </si>
-  <si>
-    <t>1692.00
-19.48 UMA's</t>
-  </si>
-  <si>
     <t>https://ruts.hidalgo.gob.mx/ver/7479</t>
   </si>
   <si>
     <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo l De las Solicitudes de Ingreso.</t>
   </si>
   <si>
+    <t>1 hora 10 minutos</t>
+  </si>
+  <si>
     <t>http://www.upp.edu.mx/serviciosescolares/</t>
   </si>
   <si>
-    <t>Obtención de Ficha para Examen de Admisión</t>
-  </si>
-  <si>
     <t>Institución Bancaria (BANORTE)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-431 .00  
- 4.96 UMA's
-1132.00
-13.03  UMA's</t>
-  </si>
-  <si>
     <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo l De las Solicitudes de Ingreso; Título Segundo, Del Ingreso, Capítulo ll De la Selección de Aspirantes</t>
   </si>
   <si>
@@ -918,39 +857,21 @@
     <t>Avalar mediante un documento oficial las calificaciones obtenidas del alumnado a la fecha de emisión del documento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Comprobante de pago.  </t>
-  </si>
-  <si>
     <t>Reglamento Académico de Nivel Licenciatura, articulo 5</t>
   </si>
   <si>
     <t>https://ruts.hidalgo.gob.mx/ver/7463</t>
   </si>
   <si>
-    <t>1 hora 35 minutos</t>
-  </si>
-  <si>
-    <t>2 copias del recibo de pago (con sello del banco)</t>
-  </si>
-  <si>
     <t>Reglamento Académico del Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Cuarto, De la calidad de Alumna/Alumno, Capítulo lll De las Reinscripciones</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,440.00  16.57   UMA's
-$3,599.00  41.43 UMA's
-$2,879.00 33.14 UMA's
-$6,169.00  71.01 UMA's </t>
-  </si>
-  <si>
     <t>https://ruts.hidalgo.gob.mx/ver/947</t>
   </si>
   <si>
     <t>Comprobante de Pago</t>
   </si>
   <si>
-    <t xml:space="preserve">20 minutos </t>
-  </si>
-  <si>
     <t>Reglamento Académico del Nivel Licenciatura  Y Posgrado Título Sexto de la conclusión de Estudios , Capitulo l de la Documentación que expide el Departamento de Servicios Escolares Artículo 118</t>
   </si>
   <si>
@@ -961,9 +882,6 @@
   </si>
   <si>
     <t>https://ruts.hidalgo.gob.mx/ver/7467</t>
-  </si>
-  <si>
-    <t>De 12 a 18 meses</t>
   </si>
   <si>
     <t xml:space="preserve">Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título Sexto De la conclusión de estudios, Capítulo II De la Titulación.
@@ -971,16 +889,6 @@
 </t>
   </si>
   <si>
-    <t>Reconocer estudios realizados en otra Institución para concluir una Licenciatura o Ingeniería de las que oferta la UPPachuca.</t>
-  </si>
-  <si>
-    <t>Original del certificado parcial de estudios con promedio mínimo de 8.0.
-Copia de temarios, plan de estudios, currícula con créditos totales y horas semanales por asignatura de la institución de procedencia, únicamente de las materias cursadas y acreditadas (formato digital).
-Copia del certificado de nivel medio superior con un promedio mínimo de 7.0 para ingenierías y licenciatura en terapia física, con un promedio mínimo de 8.0 para licenciatura en médico cirujano.
-Original de carta de buena conducta, en la que se incluya el motivo de la baja definitiva, expedida por la institución de procedencia.
-Original del comprobante de pago.</t>
-  </si>
-  <si>
     <t>http://www.upp.edu.mx/serviciosescolares/?page_id=1790</t>
   </si>
   <si>
@@ -990,143 +898,269 @@
     <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título II Del ingreso, Capítulo IV Del reconocimiento de estudios</t>
   </si>
   <si>
-    <t>259.00 
- 2.98 UMA's</t>
+    <t>Curso/Taller de Equinoterapia</t>
+  </si>
+  <si>
+    <t>Médicos, psicólogos, entrenadores de equitación, maestros, profesionales de la educación y todas aquellas personas vinculadas a los caballos y las personas con discapacidad física, psicológica y educativa, interesados en la equinoterapia como método de rehabilitación.</t>
+  </si>
+  <si>
+    <t>Brindar conocimientos teóricos y prácticos básicos sobre la terapia con caballos para personas con discapacidad  y manejo de pacientes sobre el caballo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.- Comprobante de pago.                           
+2.- Identificación Oficial (IFE, INE o Pasaporte Vigente). </t>
+  </si>
+  <si>
+    <t>1.- Autorización medica 
+2.- Diagnóstico médico</t>
+  </si>
+  <si>
+    <t>Dirección de Vinculación y Extensión y Centro Ecuestre y de Equinoterapia de la Universidad Politecnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Pachuca- Cd. Sahagún</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ex hacienda</t>
+  </si>
+  <si>
+    <t>771 547-7 5-10 extensiones 2239, 2300</t>
+  </si>
+  <si>
+    <t>ceetupp@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Lunes a viernes de 9:00 - 14:00 hrs</t>
+  </si>
+  <si>
+    <t>crystycortes@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>01-771-547-75-10 extensión 2264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Bárbara </t>
   </si>
   <si>
     <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
-Servicio Vigente para el ejercicio 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curso/Taller de Equinoterapia </t>
-  </si>
-  <si>
-    <t>Médicos, psicólogos, entrenadores de equitación, maestros, profesionales de la educación y todas aquellas personas vinculadas a los caballos y las personas con discapacidad física, psicológica y educativa, interesados en la equinoterapia como método de rehabilitación.</t>
-  </si>
-  <si>
-    <t>Brindar conocimientos teóricos y prácticos básicos de equinoterapia y manejo de pacientes sobre el caballo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprobante de pago.                           
-Identificación Oficial (IFE, INE o Pasaporte Vigente).  </t>
-  </si>
-  <si>
-    <t>crystycortes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Autorización medica 
-Diagnóstico médico</t>
-  </si>
-  <si>
-    <t>Personas con alguna discapacidad física, mental, educacional y / o social de los 6 meses de edad en adelante.</t>
-  </si>
-  <si>
-    <t>Ofrecer terapia para la rehabilitación y/o habilitación por medio del caballo en las áreas médica, psicológica, pedagógica y social a través de personal especializado.</t>
-  </si>
-  <si>
-    <t>Certificado Médico especificando para la actividad de Equinoterapia.                                                                             
-1 foto tamaño infantil (blanco y negro o color).                   
- Comprobante de pago.</t>
-  </si>
-  <si>
-    <t>Certificado Médico.
-Comprobante de Pago.</t>
-  </si>
-  <si>
-    <t>En la dependencia</t>
-  </si>
-  <si>
-    <t>En la Dependencia
+Servicio Vigente para el ejercicio 2021.</t>
+  </si>
+  <si>
+    <t>$ 1,746.00
+19.48 UMA's</t>
+  </si>
+  <si>
+    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2021.</t>
+  </si>
+  <si>
+    <t>Área de caja de la Universidad Politécnica de Pachuca
 Institución Bancaria Banorte al número de cuenta 0654922554
 Clabe Interbancaria si es que es transferencia de otros bancos: 072290006549225544</t>
   </si>
   <si>
-    <t>2 fotografías de frente tamaño infantil, blanco y negro con fondo blanco tomadas en estudio fotográfico, impresas en papel mate con retoque. Se sugiere vestimenta formal.
-Original del comprobante de pago.
-Identificación Oficial.</t>
-  </si>
-  <si>
-    <t>Original del comprobante de pago.
-Identificación Oficial.</t>
-  </si>
-  <si>
-    <t>5 días</t>
+    <t>Ofrecer terapia para la rehabilitación y/o habilitación por medio del caballo a personas con discapacidad física, psicológica, pedagógica y social con personal especializado.</t>
+  </si>
+  <si>
+    <t>Personas con alguna discapacidad física, mental, educacional y / o social de los 6 meses de edad en adelante.</t>
+  </si>
+  <si>
+    <t>1.- Certificado Médico especificando para la actividad de Equinoterapia.                                                                             
+2.- 1 foto tamaño infantil (blanco y negro o color).                   
+3. Comprobante de pago.</t>
+  </si>
+  <si>
+    <t>1.- Certificado Médico.
+2.- Comprobante de Pago.</t>
+  </si>
+  <si>
+    <t>772 547-7 5-10 extensiones 2239, 2300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Ecuestre y de Equinoterapia de la Universidad Politecnica </t>
+  </si>
+  <si>
+    <t>De lunes a viernes en días hábiles de 9:00 a 14:00 horas.</t>
+  </si>
+  <si>
+    <t>$33.00
+ 0.37 UMA's</t>
+  </si>
+  <si>
+    <t>Área de caja de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Certificado Parcial de Estudios y/o Carta de Pasante</t>
+  </si>
+  <si>
+    <t>Estudiantes de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Avalar el avance académico del estudiante para los fines que requiera.</t>
+  </si>
+  <si>
+    <t>1.- 2 fotografías de frente tamaño infantil, blanco y negro con fondo blanco tomadas en estudio fotográfico, impresas en papel mate con retoque. Se sugiere vestimenta formal.
+2.- Comprobante de pago.</t>
+  </si>
+  <si>
+    <t>1.- Comprobante de pago.</t>
+  </si>
+  <si>
+    <t>Servicios Escolares</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8323</t>
+  </si>
+  <si>
+    <t>servescolares@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>De lunes a viernes en días hábiles de 8:00 a 16:00 horas.</t>
+  </si>
+  <si>
+    <t>$144.00
+ 1.61 UMA's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencia electrónica o pago en sucursal bancaria. </t>
+  </si>
+  <si>
+    <t>En Linea</t>
+  </si>
+  <si>
+    <t>1.- Pagar en la Dependencia 
+2.- Entregar comprobante de pago en el Departamento de Servicios Escolares indicando el tipo de constancia que requiere
+3.- Identificación Oficial
+4.- Recoger constancia Escolar en el Departamento de Servicios Escolares</t>
+  </si>
+  <si>
+    <t>1.- Comprobante de pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.- Comprobante de pago
+2.- Identificación Oficial </t>
+  </si>
+  <si>
+    <t>771-547-75-10 extensión 2213</t>
   </si>
   <si>
     <t>En la Dependencia</t>
   </si>
   <si>
-    <t>Estudiantes de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Pagar en la Dependencia.
-Entregar comprobante de pago en el Departamento de Servicios Escolares indicando el tipo de constancia que requiere.
-Identificación Oficial.
-Recoger constancia Escolar en el Departamento de Servicios Escolares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprobante de pago
-Identificación Oficial </t>
-  </si>
-  <si>
     <t>Avalar que no existe registro de adeudo alguno en la UPPachuca para los fines que requiera el alumnado</t>
   </si>
   <si>
-    <t>Descargar e imprimir el formato de no adeudo.
-Recabar sellos y firmas de las áreas contempladas en el formato. 
-Realizar el pago correspondiente.
-Identificación.</t>
-  </si>
-  <si>
-    <t>Descargar e imprimir el formato de no adeudo.
-Comprobante de pago
-Identificación Oficial</t>
+    <t>1.- Realizar el pago correspondiente.
+2. Solicitar vía correo electrónico la constancia de no adeudo.</t>
+  </si>
+  <si>
+    <t>3 día 5min</t>
+  </si>
+  <si>
+    <t>Transferencia electrónica o pago en sucursal bancaria.</t>
+  </si>
+  <si>
+    <t>Brindar un servicio de preparación académica para aspirantes interesados/as en ingresar a estudiar las carreras de nivel licenciatura/ingeniería de modalidad cuatrimestral.</t>
   </si>
   <si>
     <t>Aspirantes que desean participar en el proceso de admisión</t>
   </si>
   <si>
-    <t>Registro impreso.
-2 copias Comprobante de pago.</t>
-  </si>
-  <si>
-    <t>Registro impreso.
-Comprobante de pago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspirante interesado/a en ingresar a la Universidad Politécnica de Pachuca </t>
-  </si>
-  <si>
-    <t>Número de ficha impreso.
- 2 fotografías de frente, tamaño infantil blanco y negro, papel mate tomadas en estudio fotográfico, no instantáneas.
-3.- Comprobante de pago de examen de admisión.
-1 Copia del certificado del nivel medio superior con un promedio mínimo de 8.0 (para la Licenciatura en Médico Cirujano).
-1 Copia de identificación oficial vigente con fotografía (para la Licenciatura en Médico Cirujano).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Número de registro impreso.
-Comprobante de pago de examen de admisión.
-Copia del certificado del nivel medio superior con un promedio mínimo de 7.0 y 8.0 (para la Licenciatura en Médico Cirujano).
-Copia de identificación reciente con fotografía (para la Licenciatura en Médico Cirujano).</t>
-  </si>
-  <si>
-    <t>Realizar pago. 
-Entregar comprobante de pago en el Departamento de Servicios Escolares.
-Recoger historial académico.
-Identificación oficial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El/la estudiante </t>
-  </si>
-  <si>
-    <t>Informar a los estudiantes de la UPPachuca sobre el proceso de reinscripción para dar continuidad a sus estudios.</t>
-  </si>
-  <si>
-    <t>Descargar e imprimir desde el SIIUPP la forma de pago   
-Realizar el pago de reinscripción.</t>
-  </si>
-  <si>
-    <t>1 día</t>
+    <t>1.- Número de Registro.
+2.- Comprobante de pago.</t>
+  </si>
+  <si>
+    <t>1. Numero de Registro 
+2. Comprobante de pago</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8324</t>
+  </si>
+  <si>
+    <t>$1,512.00      
+ 16.87 UMA's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institución Bancaria (BANORTE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficha para Examen de Admisión </t>
+  </si>
+  <si>
+    <t>Al público en general interesados/as en ingresar a estudiar a la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ficha para Examen de Admisión.</t>
+  </si>
+  <si>
+    <t>1.- Número de ficha
+2.- Comprobante de pago de examen de admisión
+3.- 1 Copia digital del certificado del nivel medio superior con un promedio mínimo de 8.0 (para la Licenciatura en Médico Cirujano)</t>
+  </si>
+  <si>
+    <t>1.- Número de registro
+2.- Comprobante de pago de examen de admisión
+3.- 1 Copia digital del certificado del nivel medio superior con un promedio mínimo de 7.0 y 8.0 (para la Licenciatura en Médico Cirujano)</t>
+  </si>
+  <si>
+    <t>1 hora 20  minutos</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+$445
+ 4.96 UMA's
+$1,168.00
+13.03  UMA's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.- Realizar pago. </t>
+  </si>
+  <si>
+    <t>1.- Comprobante de pago
+2.- Identificación Oficial</t>
+  </si>
+  <si>
+    <t>1 día hábil y 10 min</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8326</t>
+  </si>
+  <si>
+    <t>$22.00
+0.25 UMA's</t>
+  </si>
+  <si>
+    <t>El/la estudiante</t>
+  </si>
+  <si>
+    <t>Informar a los estudiantes de la Universidad Politécnica de Pachuca sobre el proceso de reinscripción para dar continuidad a sus estudios.</t>
+  </si>
+  <si>
+    <t>1. Descargar e imprimir desde el SIIUPP la forma de pago   
+2.- Realizar el pago de reinscripción.</t>
+  </si>
+  <si>
+    <t>1.- Forma de pago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65min </t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,485.00  16.57   UMA's
+$3,713.00   41.43 UMA's
+$2,970.00 33.14 UMA's
+$6,364.00  71.01 UMA's </t>
+  </si>
+  <si>
+    <t>Reposición de Credencial Escolar</t>
   </si>
   <si>
     <t>Estudiantes activos de la Universidad Politécnica de Pachuca</t>
@@ -1135,33 +1169,68 @@
     <t>Reposición de credencial que te acredita como  Estudiante de la Universidad Politécnica de Pachuca.</t>
   </si>
   <si>
-    <t>Comprobante de pago.</t>
-  </si>
-  <si>
-    <t>54.00
+    <t>1.- Realizar pago.
+2. Fotografía digital.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 minutos </t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8328</t>
+  </si>
+  <si>
+    <t>$56.00
 0.62 UMA's</t>
   </si>
   <si>
+    <t>Titulación Nivel Licenciatura/Ingeniería y Posgrado</t>
+  </si>
+  <si>
     <t>Egresados/as de Licenciatura/Ingeniería o Posgrado de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
     <t xml:space="preserve">Certificar mediante el Título Profesional, Diploma de Especialidad o Grado Académico la Conclusión de los Estudios. </t>
   </si>
   <si>
-    <t>"Requisitos para Titulación Licenciatura/Ingeniería"
-Verificar que el acta de nacimiento original y certificado de Bachillerato se encuentre en el expediente de alumno en el Departamento de Servicios Escolares, Certificado de bachillerato legalizado, Acta de nacimiento, 1 Copia de la constancia de liberación de servicio social emitida por la Dirección de Vinculación, Copia de la constancia de acreditación de estadía emitida por la Dirección del Programa Educativo, Constancia original de liberación de adeudo a la UPPachuca, Constancia original de liberación para titulación expedida por el Departamento de Servicios Bibliotecarios, copias de la Clave Unica de Registro de Población (CURP), 12 fotografías de frente tamaño infantil (blanco y negro, fondo blanco, papel mate con retoque, no instantáneas), Solicitud de registro de título profesional de Técnico Superior  Universitario o licenciatura,  Realizar pago.
+    <t xml:space="preserve">"Requisitos para Titulación Licenciatura/Ingeniería"
+1.- Certificado de bachillerato legalizado.
+2.- Acta de nacimiento.
+3.- Constancia de liberación de servicio social emitida por la Dirección de Vinculación .
+4.- Carta de acreditación de estadía emitida por la Dirección del Programa Educativo.
+5. Constancia de no adeudo a la Universidad Politécnica de Pachuca.
+6.- Carta de liberación para titulación expedida por el Departamento de Servicios Bibliotecarios.
+7.- Clave Unica de Registro de Población (CURP).
+8.-  12 fotografías de frente tamaño infantil (blanco y negro, fondo blanco, papel mate con retoque, no instantáneas).
+9.- Solicitud de registro de título profesional de Técnico Superior  Universitario o licenciatura.
+10.- Realizar pago.
 "Requisitos para Titulación Nivel Posgrado"
-Verificar que el acta de nacimiento original se encuentra en el expediente de alumno en el Departamento de Servicios Escolares, Original y 3 copias de certificado legalizado del nivel educativo inmediato anterior,  2 copias de cédula profesional del nivel educativo inmediato anterior, Copia de registro estatal profesional del nivel educativo inmediato anterior, 1 Copia del acta de evaluación de especialidad o del acta de examen de grado, Constancia original de liberación para titulación expedida por el Departamento de Servicios Bibliotecarios, Constancia original de liberación de adeudo a la UPPachuca, 2 copias de la Clave Única de Registro de Población (CURP), 12 fotografías de frente tamaño infantil (blanco y negro, fondo blanco, papel mate con retoque, no instantáneas), Solicitud de registro y autorización para ejercer una especialidad o solicitud de registro de grado académico de maestría o doctorado, Realizar pago.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titulación Licenciatura/Ingeniería
- Original y 3 copias del Acta de nacimiento, Original y 2 copias del Certificado de bachillerato legalizado, Copia de la constancia de liberación de servicio social emitida por la Dirección de Vinculación y Extensión, 1 Copia de la constancia de acreditación de estadía emitida por la Dirección del Programa Educativo,  Constancia original de liberación de adeudo a la UPPachuca, Constancia original de liberación para titulación expedida por el Departamento de Servicios Bibliotecarios, 3 copias de la Clave Única de Registro de Población (CURP), Solicitud de registro de título profesional de técnico universitario o licenciatura, Comprobante de pago.
-Para Titulación Nivel Posgrado
-Original y 3 copias del Acta de nacimiento, Original y 3 copias de certificado legalizado del nivel educativo inmediato anterior, 2 copias de cédula profesional del nivel educativo inmediato anterior, 1 Copia de registro estatal profesional del nivel educativo inmediato anterior, 1 Copia del acta de evaluación de especialidad o del acta de examen de grado, Constancia original de liberación para titulación expedida por el Departamento de Servicios Bibliotecarios, Constancia original de liberación de adeudo a la UPPachuca, 2 copias de la Clave Única de Registro de Población (CURP), Solicitud de registro y autorización para ejercer una especialidad o solicitud de registro de grado académico de maestría o doctorado, Comprobante de pago.   </t>
-  </si>
-  <si>
-    <t>1,132.00 
-13.03 UMA´s                                                 87.00                                                      1.00UMA´s</t>
+1.- Certificado legalizado del nivel educativo inmediato anterior.
+2.- Cédula profesional del nivel educativo inmediato anterior.
+3.- Registro estatal profesional del nivel educativo inmediato anterior. 
+5.- Acta de evaluación de especialidad o del acta de examen de grado.
+7.- Constancia de no adeudo a la Universidad Politécnica de Pachuca.
+8.- Carta de liberación para titulación expedida por el Departamento de Servicios Bibliotecarios.
+9.- Clave Unica de Registro de Población (CURP).
+10.-  12 fotografías de frente tamaño infantil (blanco y negro, fondo blanco, papel mate con retoque, no instantáneas).
+11.- Solicitud de registro y autorización para ejercer una especialidad o solicitud de registro de grado académico de maestría o doctorado. 
+12.- Realizar pago.
+</t>
+  </si>
+  <si>
+    <t>Titulación Licenciatura/Ingeniería
+1.- Acta de nacimiento.
+2.- Certificado de bachillerato legalizado.
+3.- Comprobante de pago.</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,168.00 
+13.03 UMA´s </t>
+  </si>
+  <si>
+    <t>Institución bancaria (BANORTE)</t>
   </si>
   <si>
     <t>Equivalencia de Estudios</t>
@@ -1170,18 +1239,80 @@
     <t>El(la) aspirante que desea  concluir sus estudios de nivel licenciatura.</t>
   </si>
   <si>
-    <t>Original del certificado parcial de estudios con promedio mínimo de 8.0,expedido por la institución de procedencia. 
- Copia de temarios,plan de estudios,currícula con créditos totales y horas semanales por asignatura de la institución de procedencia,únicamente de las materias cursadas y acreditadas (formato digital). 
-Copia del certificado de nivel medio superior con un promedio mínimo de 7.0 para ingenierías y licenciatura en terapia física, con un promedio mínimo de 8.0 para licenciatura en médico cirujano, expedido por la institución de procedencia. 
-Original de carta de buena conducta, en la que se incluya el motivo de la baja definitiva, expedida por la institución de procedencia. 
-Original del comprobante de pago.
-Copia de opinión técnico-académica FAVORABLE emitida por el comité Estatal Interinstitucional para la Formación y Capacitación de Recursos Humanos e Investigación para la salud (CIFRHS), del Programa Educativo de la Institución de procedencia. Solo Aspirantes a la Licenciatura en Médico Cirujano.</t>
+    <t>Reconocer estudios realizados en otra Institución para concluir una Licenciatura o Ingeniería de las que oferta la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>1.- Certificado parcial de estudios con promedio mínimo de 8.0,expedido por la institución de procedencia. 
+2.- Copia digital de temarios, plan de estudios, currícula con créditos totales y horas semanales por asignatura de la institución de procedencia, únicamente de las materias cursadas y acreditadas.
+3.- Certificado de nivel medio superior con un promedio mínimo de 7.0 para ingenierías y licenciatura en terapia física, con un promedio mínimo de 8.0 para licenciatura en médico cirujano, expedido por la institución de procedencia. 
+4.- Carta de buena conducta, en la que se incluya el motivo de la baja definitiva, expedida por la institución de procedencia. 
+5.- Comprobante de pago.
+6.- Copia digital de opinión técnico-académica FAVORABLE emitida por el comité Estatal Interinstitucional para la Formación y Capacitación de Recursos Humanos e Investigación para la salud (CIFRHS), del Programa Educativo de la Institución de procedencia. Solo Aspirantes a la Licenciatura en Médico Cirujano.</t>
+  </si>
+  <si>
+    <t>1.-Certificado parcial de estudios con promedio mínimo de 8.0.
+2.-Copia digital de temarios, plan de estudios, currícula con créditos totales y horas semanales por asignatura de la institución de procedencia, únicamente de las materias cursadas y acreditadas.
+3.-Certificado de nivel medio superior con un promedio mínimo de 7.0 para ingenierías y licenciatura en terapia física, con un promedio mínimo de 8.0 para licenciatura en médico cirujano.
+4.-Carta de buena conducta, en la que se incluya el motivo de la baja definitiva, expedida por la institución de procedencia.
+5.- Comprobante de pago.
+6. Copia digital de opinión técnico-académica FAVORABLE emitida por el comité Estatal Interinstitucional para la Formación y Capacitación de Recursos Humanos e Investigación para la salud (CIFRHS), del Programa Educativo de la Institución de procedencia. Solo Aspirantes a la Licenciatura en Médico Cirujano.</t>
   </si>
   <si>
     <t>30 días</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/ceetupp/</t>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8330</t>
+  </si>
+  <si>
+    <t>$267.00
+ 2.98 UMA's</t>
+  </si>
+  <si>
+    <t>Clínica Universitaria de Rehabilitación Integral (C.U.R.e.I.) Servicios de Terapia Física</t>
+  </si>
+  <si>
+    <t>Público en general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clínica de rehabilitación enfocada a la prevención, tratamiento y rehabilitación de personas con limitaciones físicas, funcionales e intelectuales, para impulsar la recuperación, potenciación y mantenimiento integral de sus capacidades y así integrar a la persona en su entorno biopsicosocial mejorando su calidad de vida. </t>
+  </si>
+  <si>
+    <t>1.- Identificación oficial vigente;
+2.- Una fotografía tamaño infantil blanco y negro o color;
+3.- Agendar cita de terapia física; y
+4.- Recibo de pago.</t>
+  </si>
+  <si>
+    <t>1. Identificación Oficial Vigente
+2. Comprobante de pago</t>
+  </si>
+  <si>
+    <t>1 día hábil, 4 horas y 30 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clínica Universitaria de Rehabilitación Integral </t>
+  </si>
+  <si>
+    <t>771 547 7510 Ext 2441</t>
+  </si>
+  <si>
+    <t>curei@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>De lunes a viernes en días hábiles de 8:00 a 16:00 horas conforme a calendario escolar UPP. Excepto días de suspensión oficial y días de Consejo Técnico Escolar para Educación Superior (CTEES)</t>
+  </si>
+  <si>
+    <t>$56.00
+ 0.62 UMA´s</t>
+  </si>
+  <si>
+    <t>Ley integral para las personas con discapacidad del estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/ver/8905</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/curei/</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1305,6 +1436,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1323,19 +1457,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1653,15 +1788,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
@@ -1677,7 +1812,7 @@
     <col min="14" max="14" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="60.140625" customWidth="1"/>
     <col min="16" max="16" width="62.28515625" customWidth="1"/>
-    <col min="17" max="17" width="65.5703125" customWidth="1"/>
+    <col min="17" max="17" width="60.28515625" customWidth="1"/>
     <col min="18" max="18" width="28.5703125" customWidth="1"/>
     <col min="19" max="19" width="32.28515625" customWidth="1"/>
     <col min="20" max="20" width="61" customWidth="1"/>
@@ -1685,7 +1820,7 @@
     <col min="22" max="22" width="40" customWidth="1"/>
     <col min="23" max="23" width="15.5703125" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" customWidth="1"/>
-    <col min="25" max="25" width="49.28515625" customWidth="1"/>
+    <col min="25" max="25" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -1694,38 +1829,38 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:29" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1898,157 +2033,159 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
     </row>
     <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44286</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>313</v>
+      <c r="F8" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="K8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="K8" s="17"/>
       <c r="L8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="15" t="s">
-        <v>278</v>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q8" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>235</v>
       </c>
       <c r="R8" s="7" t="s">
@@ -2057,76 +2194,78 @@
       <c r="S8" s="7">
         <v>1</v>
       </c>
-      <c r="T8" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>358</v>
+      <c r="T8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W8" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X8" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="3" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C9" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44286</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>318</v>
+      <c r="F9" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="K9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K9" s="11"/>
       <c r="L9" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M9" s="7"/>
+        <v>240</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
       <c r="N9" s="7" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>244</v>
+        <v>312</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>236</v>
@@ -2134,23 +2273,23 @@
       <c r="S9" s="7">
         <v>1</v>
       </c>
-      <c r="T9" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>358</v>
+      <c r="T9" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W9" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X9" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -2159,51 +2298,53 @@
     </row>
     <row r="10" spans="1:29" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C10" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44286</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>258</v>
+      <c r="F10" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I10" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="K10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K10" s="11"/>
       <c r="L10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M10" s="7"/>
+        <v>265</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
       <c r="N10" s="7" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>262</v>
+        <v>323</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>236</v>
@@ -2211,74 +2352,76 @@
       <c r="S10" s="7">
         <v>1</v>
       </c>
-      <c r="T10" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>263</v>
+      <c r="T10" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W10" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X10" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C11" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44286</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>328</v>
+      <c r="F11" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>270</v>
+      <c r="Q11" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>236</v>
@@ -2286,74 +2429,76 @@
       <c r="S11" s="7">
         <v>1</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>272</v>
+      <c r="T11" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W11" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X11" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="72" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C12" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44286</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>328</v>
+      <c r="F12" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>264</v>
+      <c r="Q12" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>236</v>
@@ -2361,74 +2506,76 @@
       <c r="S12" s="7">
         <v>1</v>
       </c>
-      <c r="T12" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>275</v>
+      <c r="T12" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W12" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X12" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="72" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C13" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C13" s="8">
+        <v>44286</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>281</v>
+      <c r="J13" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M13" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6</v>
+      </c>
       <c r="N13" s="7" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>280</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>236</v>
@@ -2436,72 +2583,74 @@
       <c r="S13" s="7">
         <v>1</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>279</v>
+      <c r="T13" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W13" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X13" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C14" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B14" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C14" s="8">
+        <v>44286</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>337</v>
+      <c r="F14" s="9" t="s">
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="K14" s="10"/>
+        <v>324</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="K14" s="11"/>
       <c r="L14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M14" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
       <c r="N14" s="7" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>285</v>
+        <v>267</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>268</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>236</v>
@@ -2509,72 +2658,74 @@
       <c r="S14" s="7">
         <v>1</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>286</v>
+      <c r="T14" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W14" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X14" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="72" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C15" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C15" s="8">
+        <v>44286</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>328</v>
+      <c r="F15" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="K15" s="10"/>
+        <v>324</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="K15" s="11"/>
       <c r="L15" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M15" s="7"/>
+        <v>351</v>
+      </c>
+      <c r="M15" s="7">
+        <v>8</v>
+      </c>
       <c r="N15" s="7" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>290</v>
+        <v>333</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>236</v>
@@ -2582,72 +2733,74 @@
       <c r="S15" s="7">
         <v>1</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>275</v>
+      <c r="T15" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W15" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X15" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C16" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B16" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44286</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>341</v>
+      <c r="F16" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="M16" s="7"/>
+        <v>324</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
       <c r="N16" s="7" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>294</v>
+        <v>267</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>236</v>
@@ -2655,72 +2808,74 @@
       <c r="S16" s="7">
         <v>1</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>286</v>
+      <c r="T16" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W16" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X16" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C17" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B17" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C17" s="8">
+        <v>44286</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>255</v>
+        <v>361</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>345</v>
+      <c r="F17" s="9" t="s">
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="K17" s="10"/>
+        <v>324</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K17" s="11"/>
       <c r="L17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M17" s="7"/>
+        <v>365</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
       <c r="N17" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>299</v>
+        <v>323</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>236</v>
@@ -2728,74 +2883,76 @@
       <c r="S17" s="7">
         <v>1</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>300</v>
+      <c r="T17" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W17" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X17" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="316.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="390" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B18" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C18" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44286</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>256</v>
+        <v>368</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>349</v>
+      <c r="F18" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="K18" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" s="7">
+        <v>11</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="P18" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>304</v>
+        <v>375</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>236</v>
@@ -2803,72 +2960,74 @@
       <c r="S18" s="7">
         <v>1</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>301</v>
+      <c r="T18" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W18" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X18" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B19" s="16">
-        <v>44105</v>
-      </c>
-      <c r="C19" s="16">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B19" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C19" s="8">
+        <v>44286</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>355</v>
+      <c r="F19" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" s="10"/>
+        <v>324</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="K19" s="11"/>
       <c r="L19" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="M19" s="7"/>
+        <v>381</v>
+      </c>
+      <c r="M19" s="7">
+        <v>12</v>
+      </c>
       <c r="N19" s="7" t="s">
-        <v>310</v>
+        <v>383</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>309</v>
+        <v>323</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>236</v>
@@ -2876,23 +3035,98 @@
       <c r="S19" s="7">
         <v>1</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>307</v>
+      <c r="T19" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W19" s="8">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="X19" s="8">
-        <v>44206</v>
-      </c>
-      <c r="Y19" s="17" t="s">
-        <v>311</v>
+        <v>44298</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44197</v>
+      </c>
+      <c r="C20" s="8">
+        <v>44286</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="M20" s="18">
+        <v>13</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="S20" s="7">
+        <v>2</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="W20" s="8">
+        <v>44298</v>
+      </c>
+      <c r="X20" s="8">
+        <v>44298</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2919,30 +3153,31 @@
     <hyperlink ref="T9" r:id="rId6"/>
     <hyperlink ref="T11" r:id="rId7"/>
     <hyperlink ref="U11" r:id="rId8"/>
-    <hyperlink ref="K11" r:id="rId9"/>
-    <hyperlink ref="K12" r:id="rId10"/>
-    <hyperlink ref="T12" r:id="rId11"/>
-    <hyperlink ref="U12" r:id="rId12"/>
-    <hyperlink ref="Q13" r:id="rId13" display="https://drive.google.com/file/d/1XsxPilRGjfcCii89kEATo4SLMtWSXW6b/view?usp=sharing"/>
-    <hyperlink ref="T13" r:id="rId14"/>
-    <hyperlink ref="U13" r:id="rId15"/>
-    <hyperlink ref="K13" r:id="rId16"/>
-    <hyperlink ref="U14" r:id="rId17"/>
-    <hyperlink ref="T14" r:id="rId18"/>
-    <hyperlink ref="U15" r:id="rId19"/>
-    <hyperlink ref="T15" r:id="rId20"/>
-    <hyperlink ref="T16" r:id="rId21"/>
-    <hyperlink ref="U16" r:id="rId22"/>
-    <hyperlink ref="T17" r:id="rId23"/>
-    <hyperlink ref="U18" r:id="rId24"/>
-    <hyperlink ref="T18" r:id="rId25"/>
-    <hyperlink ref="K18" r:id="rId26"/>
-    <hyperlink ref="U19" r:id="rId27"/>
-    <hyperlink ref="T19" r:id="rId28"/>
-    <hyperlink ref="U17" r:id="rId29"/>
+    <hyperlink ref="K12" r:id="rId9"/>
+    <hyperlink ref="T12" r:id="rId10"/>
+    <hyperlink ref="U12" r:id="rId11"/>
+    <hyperlink ref="Q13" r:id="rId12" display="https://drive.google.com/file/d/1XsxPilRGjfcCii89kEATo4SLMtWSXW6b/view?usp=sharing"/>
+    <hyperlink ref="T13" r:id="rId13"/>
+    <hyperlink ref="U13" r:id="rId14"/>
+    <hyperlink ref="K13" r:id="rId15"/>
+    <hyperlink ref="U14" r:id="rId16"/>
+    <hyperlink ref="T14" r:id="rId17"/>
+    <hyperlink ref="U15" r:id="rId18"/>
+    <hyperlink ref="T15" r:id="rId19"/>
+    <hyperlink ref="T16" r:id="rId20"/>
+    <hyperlink ref="U16" r:id="rId21"/>
+    <hyperlink ref="T17" r:id="rId22"/>
+    <hyperlink ref="U18" r:id="rId23"/>
+    <hyperlink ref="T18" r:id="rId24"/>
+    <hyperlink ref="K18" r:id="rId25"/>
+    <hyperlink ref="U19" r:id="rId26"/>
+    <hyperlink ref="T19" r:id="rId27"/>
+    <hyperlink ref="U17" r:id="rId28"/>
+    <hyperlink ref="T20" r:id="rId29"/>
+    <hyperlink ref="U20" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -2950,170 +3185,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3127,18 +3361,18 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3149,16 +3383,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -3175,7 +3409,7 @@
     <col min="16" max="16" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.42578125" customWidth="1"/>
+    <col min="19" max="19" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3291,65 +3525,843 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="1" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="5">
+        <v>83</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" s="5">
+        <v>13</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="5">
+        <v>43830</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="5">
+        <v>84</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="5">
+        <v>14</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O5" s="5">
+        <v>43831</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="5">
+        <v>85</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" s="5">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" s="5">
+        <v>43832</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="5">
+        <v>86</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" s="5">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" s="5">
+        <v>43833</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="5">
+        <v>87</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M8" s="5">
+        <v>17</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O8" s="5">
+        <v>43834</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="5">
+        <v>88</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" s="5">
+        <v>18</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" s="5">
+        <v>43835</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="5">
+        <v>89</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" s="5">
+        <v>19</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="5">
+        <v>43836</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="5">
+        <v>90</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M11" s="5">
+        <v>20</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" s="5">
+        <v>43837</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="5">
+        <v>91</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M12" s="5">
+        <v>21</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" s="5">
+        <v>43838</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" s="5">
+        <v>92</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="5">
+        <v>22</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="5">
+        <v>43839</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="5">
+        <v>93</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" s="5">
+        <v>23</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O14" s="5">
+        <v>43840</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="5">
+        <v>94</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M15" s="5">
+        <v>24</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="5">
+        <v>43841</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="5">
+        <v>95</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="5">
+        <v>25</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O16" s="5">
+        <v>43842</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N16">
+      <formula1>Hidden_3_Tabla_35071013</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C16">
+      <formula1>Hidden_1_Tabla_3507102</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G16">
+      <formula1>Hidden_2_Tabla_3507106</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3358,130 +4370,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3494,217 +4505,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3717,172 +4725,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3895,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,45 +5078,45 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>141</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L4" s="5">
         <v>83</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N4" s="5">
         <v>13</v>
@@ -4123,7 +5128,7 @@
         <v>43830</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4139,7 +5144,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="isela.espinosa@upp.edu.mx"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4152,137 +5157,134 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4295,215 +5297,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" t="s">
         <v>167</v>
       </c>
     </row>

--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="397">
   <si>
     <t>44250</t>
   </si>
@@ -767,28 +767,10 @@
     <t>Salud (artículo 25) Derecho a gozar del más alto nivel posible de salud, sin discriminación por motivos de discapacidad. Habilitación y rehabilitación (artículo 26) Derecho a recibir y ser parte de servicios y programas generales de habilitación y rehabilitación, en particular en los ámbitos de la salud, el empleo, la educación y los servicios sociales.</t>
   </si>
   <si>
-    <t>Servicios de Equinoterapia</t>
-  </si>
-  <si>
     <t>https://ruts.hidalgo.gob.mx/ver/7508</t>
   </si>
   <si>
     <t>https://ruts.hidalgo.gob.mx/ver/7534</t>
-  </si>
-  <si>
-    <t>Constancia Escolar</t>
-  </si>
-  <si>
-    <t>Constancia de no adeudos</t>
-  </si>
-  <si>
-    <t>Curso propedéutico</t>
-  </si>
-  <si>
-    <t>Historial Académico</t>
-  </si>
-  <si>
-    <t>Reisncripción</t>
   </si>
   <si>
     <t>20 minutos</t>
@@ -898,9 +880,6 @@
     <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título II Del ingreso, Capítulo IV Del reconocimiento de estudios</t>
   </si>
   <si>
-    <t>Curso/Taller de Equinoterapia</t>
-  </si>
-  <si>
     <t>Médicos, psicólogos, entrenadores de equitación, maestros, profesionales de la educación y todas aquellas personas vinculadas a los caballos y las personas con discapacidad física, psicológica y educativa, interesados en la equinoterapia como método de rehabilitación.</t>
   </si>
   <si>
@@ -990,9 +969,6 @@
   </si>
   <si>
     <t>Área de caja de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Certificado Parcial de Estudios y/o Carta de Pasante</t>
   </si>
   <si>
     <t>Estudiantes de la Universidad Politécnica de Pachuca.</t>
@@ -1046,9 +1022,6 @@
     <t>771-547-75-10 extensión 2213</t>
   </si>
   <si>
-    <t>En la Dependencia</t>
-  </si>
-  <si>
     <t>Avalar que no existe registro de adeudo alguno en la UPPachuca para los fines que requiera el alumnado</t>
   </si>
   <si>
@@ -1084,9 +1057,6 @@
   </si>
   <si>
     <t xml:space="preserve">Institución Bancaria (BANORTE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficha para Examen de Admisión </t>
   </si>
   <si>
     <t>Al público en general interesados/as en ingresar a estudiar a la Universidad Politécnica de Pachuca</t>
@@ -1160,9 +1130,6 @@
 $6,364.00  71.01 UMA's </t>
   </si>
   <si>
-    <t>Reposición de Credencial Escolar</t>
-  </si>
-  <si>
     <t>Estudiantes activos de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
@@ -1181,9 +1148,6 @@
   <si>
     <t>$56.00
 0.62 UMA's</t>
-  </si>
-  <si>
-    <t>Titulación Nivel Licenciatura/Ingeniería y Posgrado</t>
   </si>
   <si>
     <t>Egresados/as de Licenciatura/Ingeniería o Posgrado de la Universidad Politécnica de Pachuca</t>
@@ -1233,9 +1197,6 @@
     <t>Institución bancaria (BANORTE)</t>
   </si>
   <si>
-    <t>Equivalencia de Estudios</t>
-  </si>
-  <si>
     <t>El(la) aspirante que desea  concluir sus estudios de nivel licenciatura.</t>
   </si>
   <si>
@@ -1268,9 +1229,6 @@
  2.98 UMA's</t>
   </si>
   <si>
-    <t>Clínica Universitaria de Rehabilitación Integral (C.U.R.e.I.) Servicios de Terapia Física</t>
-  </si>
-  <si>
     <t>Público en general</t>
   </si>
   <si>
@@ -1313,6 +1271,45 @@
   </si>
   <si>
     <t>http://www.upp.edu.mx/curei/</t>
+  </si>
+  <si>
+    <t>Clínica Universitaria de Rehabilitación Integral (C.U.R.e.I.) Servicios de Terapia Física UPP</t>
+  </si>
+  <si>
+    <t>Equivalencia de Estudios UPP</t>
+  </si>
+  <si>
+    <t>Titulación Nivel Licenciatura/Ingeniería y Posgrado UPP</t>
+  </si>
+  <si>
+    <t>Reposición de Credencial Escolar UPP</t>
+  </si>
+  <si>
+    <t>Reisncripción UPP</t>
+  </si>
+  <si>
+    <t>Historial Académico UPP</t>
+  </si>
+  <si>
+    <t>Ficha para Examen de Admisión UPP</t>
+  </si>
+  <si>
+    <t>Curso propedéutico UPP</t>
+  </si>
+  <si>
+    <t>Constancia de no adeudos UPP</t>
+  </si>
+  <si>
+    <t>Constancia Escolar UPP</t>
+  </si>
+  <si>
+    <t>Certificado Parcial de Estudios y/o Carta de Pasante UPP</t>
+  </si>
+  <si>
+    <t>Servicios de Equinoterapia UPP</t>
+  </si>
+  <si>
+    <t>Curso/Taller de Equinoterapia UPP</t>
   </si>
 </sst>
 </file>
@@ -1790,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,31 +2140,31 @@
         <v>2021</v>
       </c>
       <c r="B8" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>285</v>
+        <v>396</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>233</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="7" t="s">
@@ -2177,13 +2174,13 @@
         <v>1</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>235</v>
@@ -2195,22 +2192,22 @@
         <v>1</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W8" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X8" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -2222,31 +2219,31 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C9" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>242</v>
+        <v>395</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>233</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="7" t="s">
@@ -2256,13 +2253,13 @@
         <v>2</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>241</v>
@@ -2274,22 +2271,22 @@
         <v>1</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W9" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X9" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -2301,50 +2298,50 @@
         <v>2021</v>
       </c>
       <c r="B10" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C10" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>236</v>
@@ -2353,22 +2350,22 @@
         <v>1</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W10" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X10" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,52 +2373,52 @@
         <v>2021</v>
       </c>
       <c r="B11" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C11" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>245</v>
+        <v>393</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>236</v>
@@ -2430,22 +2427,22 @@
         <v>1</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W11" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X11" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,52 +2450,52 @@
         <v>2021</v>
       </c>
       <c r="B12" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C12" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>246</v>
+        <v>392</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>236</v>
@@ -2507,22 +2504,22 @@
         <v>1</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W12" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X12" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,52 +2527,52 @@
         <v>2021</v>
       </c>
       <c r="B13" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C13" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>247</v>
+        <v>391</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>233</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>236</v>
@@ -2584,22 +2581,22 @@
         <v>1</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W13" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X13" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2607,50 +2604,50 @@
         <v>2021</v>
       </c>
       <c r="B14" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C14" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>236</v>
@@ -2659,22 +2656,22 @@
         <v>1</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W14" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X14" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2682,50 +2679,50 @@
         <v>2021</v>
       </c>
       <c r="B15" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C15" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>236</v>
@@ -2734,22 +2731,22 @@
         <v>1</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W15" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X15" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2757,50 +2754,50 @@
         <v>2021</v>
       </c>
       <c r="B16" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C16" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>249</v>
+        <v>388</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="16" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>236</v>
@@ -2809,22 +2806,22 @@
         <v>1</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W16" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X16" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2832,50 +2829,50 @@
         <v>2021</v>
       </c>
       <c r="B17" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C17" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>236</v>
@@ -2884,22 +2881,22 @@
         <v>1</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W17" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X17" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="390" customHeight="1" x14ac:dyDescent="0.25">
@@ -2907,52 +2904,52 @@
         <v>2021</v>
       </c>
       <c r="B18" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C18" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>236</v>
@@ -2961,22 +2958,22 @@
         <v>1</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W18" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X18" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,50 +2981,50 @@
         <v>2021</v>
       </c>
       <c r="B19" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>236</v>
@@ -3036,22 +3033,22 @@
         <v>1</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W19" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X19" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3059,10 +3056,10 @@
         <v>2021</v>
       </c>
       <c r="B20" s="8">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C20" s="8">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>384</v>
@@ -3071,38 +3068,38 @@
         <v>66</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>233</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="21" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M20" s="18">
         <v>13</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>312</v>
+        <v>295</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="R20" s="7" t="s">
         <v>236</v>
@@ -3111,22 +3108,22 @@
         <v>2</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="U20" s="22" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W20" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="X20" s="8">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3385,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,25 +3585,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -3633,13 +3630,13 @@
         <v>239</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -3647,25 +3644,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -3692,13 +3689,13 @@
         <v>239</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3706,25 +3703,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -3751,13 +3748,13 @@
         <v>239</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -3765,25 +3762,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -3810,13 +3807,13 @@
         <v>239</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -3824,25 +3821,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -3869,13 +3866,13 @@
         <v>239</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3883,25 +3880,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -3928,13 +3925,13 @@
         <v>239</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3942,25 +3939,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
@@ -3987,13 +3984,13 @@
         <v>239</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4001,25 +3998,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -4046,13 +4043,13 @@
         <v>239</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4060,25 +4057,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I12" s="5">
         <v>1</v>
@@ -4105,13 +4102,13 @@
         <v>239</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -4119,25 +4116,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I13" s="5">
         <v>1</v>
@@ -4164,13 +4161,13 @@
         <v>239</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4178,25 +4175,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I14" s="5">
         <v>1</v>
@@ -4223,13 +4220,13 @@
         <v>239</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -4237,25 +4234,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
@@ -4282,13 +4279,13 @@
         <v>239</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="S15" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -4296,25 +4293,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I16" s="5">
         <v>1</v>
@@ -4341,13 +4338,13 @@
         <v>239</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -4900,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5083,16 +5080,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>237</v>
@@ -5104,7 +5101,7 @@
         <v>141</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>

--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,10 +2140,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>396</v>
@@ -2201,10 +2201,10 @@
         <v>232</v>
       </c>
       <c r="W8" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X8" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y8" s="9" t="s">
         <v>293</v>
@@ -2219,10 +2219,10 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C9" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>395</v>
@@ -2280,10 +2280,10 @@
         <v>232</v>
       </c>
       <c r="W9" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X9" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y9" s="9" t="s">
         <v>293</v>
@@ -2298,10 +2298,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C10" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>394</v>
@@ -2359,10 +2359,10 @@
         <v>232</v>
       </c>
       <c r="W10" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X10" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>293</v>
@@ -2373,10 +2373,10 @@
         <v>2021</v>
       </c>
       <c r="B11" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C11" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>393</v>
@@ -2436,10 +2436,10 @@
         <v>232</v>
       </c>
       <c r="W11" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X11" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y11" s="9" t="s">
         <v>293</v>
@@ -2450,10 +2450,10 @@
         <v>2021</v>
       </c>
       <c r="B12" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C12" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>392</v>
@@ -2513,10 +2513,10 @@
         <v>232</v>
       </c>
       <c r="W12" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X12" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>293</v>
@@ -2527,10 +2527,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C13" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>391</v>
@@ -2590,10 +2590,10 @@
         <v>232</v>
       </c>
       <c r="W13" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X13" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>293</v>
@@ -2604,10 +2604,10 @@
         <v>2021</v>
       </c>
       <c r="B14" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C14" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>390</v>
@@ -2665,10 +2665,10 @@
         <v>232</v>
       </c>
       <c r="W14" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X14" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>293</v>
@@ -2679,10 +2679,10 @@
         <v>2021</v>
       </c>
       <c r="B15" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C15" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>389</v>
@@ -2740,10 +2740,10 @@
         <v>232</v>
       </c>
       <c r="W15" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X15" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y15" s="9" t="s">
         <v>293</v>
@@ -2754,10 +2754,10 @@
         <v>2021</v>
       </c>
       <c r="B16" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C16" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>388</v>
@@ -2815,10 +2815,10 @@
         <v>232</v>
       </c>
       <c r="W16" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X16" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y16" s="9" t="s">
         <v>293</v>
@@ -2829,10 +2829,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C17" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>387</v>
@@ -2890,10 +2890,10 @@
         <v>232</v>
       </c>
       <c r="W17" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X17" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>293</v>
@@ -2904,10 +2904,10 @@
         <v>2021</v>
       </c>
       <c r="B18" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C18" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>386</v>
@@ -2967,10 +2967,10 @@
         <v>232</v>
       </c>
       <c r="W18" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X18" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>293</v>
@@ -2981,10 +2981,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C19" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>385</v>
@@ -3042,10 +3042,10 @@
         <v>232</v>
       </c>
       <c r="W19" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X19" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>293</v>
@@ -3056,10 +3056,10 @@
         <v>2021</v>
       </c>
       <c r="B20" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C20" s="8">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>384</v>
@@ -3117,10 +3117,10 @@
         <v>232</v>
       </c>
       <c r="W20" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="X20" s="8">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>293</v>

--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\UPP 4to trimestre 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="398">
   <si>
     <t>44250</t>
   </si>
@@ -912,9 +912,6 @@
     <t>ceetupp@upp.edu.mx</t>
   </si>
   <si>
-    <t>Lunes a viernes de 9:00 - 14:00 hrs</t>
-  </si>
-  <si>
     <t>crystycortes@upp.edu.mx</t>
   </si>
   <si>
@@ -961,9 +958,6 @@
     <t xml:space="preserve">Centro Ecuestre y de Equinoterapia de la Universidad Politecnica </t>
   </si>
   <si>
-    <t>De lunes a viernes en días hábiles de 9:00 a 14:00 horas.</t>
-  </si>
-  <si>
     <t>$33.00
  0.37 UMA's</t>
   </si>
@@ -991,9 +985,6 @@
   </si>
   <si>
     <t>servescolares@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>De lunes a viernes en días hábiles de 8:00 a 16:00 horas.</t>
   </si>
   <si>
     <t>$144.00
@@ -1257,9 +1248,6 @@
     <t>curei@upp.edu.mx</t>
   </si>
   <si>
-    <t>De lunes a viernes en días hábiles de 8:00 a 16:00 horas conforme a calendario escolar UPP. Excepto días de suspensión oficial y días de Consejo Técnico Escolar para Educación Superior (CTEES)</t>
-  </si>
-  <si>
     <t>$56.00
  0.62 UMA´s</t>
   </si>
@@ -1310,6 +1298,22 @@
   </si>
   <si>
     <t>Curso/Taller de Equinoterapia UPP</t>
+  </si>
+  <si>
+    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
+Servicio Vigente para el ejercicio 2022.</t>
+  </si>
+  <si>
+    <t>Lunes a viernes en días hábiles de 9:00 a 14:00 horas.</t>
+  </si>
+  <si>
+    <t>Lunes a viernes en días hábiles de 8:00 a 16:00 horas.</t>
+  </si>
+  <si>
+    <t>Lunes a viernes en días hábiles de 9:00 - 14:00 horas.</t>
+  </si>
+  <si>
+    <t>Lunes a viernes en días hábiles de 8:00 a 16:00 horas conforme a calendario escolar UPP. Excepto días de suspensión oficial y días de Consejo Técnico Escolar para Educación Superior (CTEES)</t>
   </si>
 </sst>
 </file>
@@ -1787,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,13 +2144,13 @@
         <v>2021</v>
       </c>
       <c r="B8" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>66</v>
@@ -2174,13 +2178,13 @@
         <v>1</v>
       </c>
       <c r="N8" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>235</v>
@@ -2201,13 +2205,13 @@
         <v>232</v>
       </c>
       <c r="W8" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X8" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -2219,31 +2223,31 @@
         <v>2021</v>
       </c>
       <c r="B9" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C9" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>233</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>299</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>300</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="7" t="s">
@@ -2253,13 +2257,13 @@
         <v>2</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>241</v>
@@ -2280,13 +2284,13 @@
         <v>232</v>
       </c>
       <c r="W9" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X9" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -2298,31 +2302,31 @@
         <v>2021</v>
       </c>
       <c r="B10" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C10" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="7" t="s">
@@ -2332,13 +2336,13 @@
         <v>3</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>245</v>
@@ -2359,13 +2363,13 @@
         <v>232</v>
       </c>
       <c r="W10" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X10" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2373,31 +2377,31 @@
         <v>2021</v>
       </c>
       <c r="B11" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C11" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>249</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>253</v>
@@ -2409,13 +2413,13 @@
         <v>4</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>251</v>
@@ -2436,13 +2440,13 @@
         <v>232</v>
       </c>
       <c r="W11" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X11" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2450,49 +2454,49 @@
         <v>2021</v>
       </c>
       <c r="B12" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C12" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>247</v>
@@ -2513,13 +2517,13 @@
         <v>232</v>
       </c>
       <c r="W12" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X12" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -2527,31 +2531,31 @@
         <v>2021</v>
       </c>
       <c r="B13" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C13" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>233</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>260</v>
@@ -2563,13 +2567,13 @@
         <v>6</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>258</v>
@@ -2590,13 +2594,13 @@
         <v>232</v>
       </c>
       <c r="W13" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X13" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,44 +2608,44 @@
         <v>2021</v>
       </c>
       <c r="B14" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C14" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>261</v>
@@ -2665,13 +2669,13 @@
         <v>232</v>
       </c>
       <c r="W14" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X14" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2679,47 +2683,47 @@
         <v>2021</v>
       </c>
       <c r="B15" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C15" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>265</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>266</v>
@@ -2740,13 +2744,13 @@
         <v>232</v>
       </c>
       <c r="W15" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X15" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2754,44 +2758,44 @@
         <v>2021</v>
       </c>
       <c r="B16" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C16" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>344</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>261</v>
@@ -2815,13 +2819,13 @@
         <v>232</v>
       </c>
       <c r="W16" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X16" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2829,47 +2833,47 @@
         <v>2021</v>
       </c>
       <c r="B17" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C17" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>270</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>271</v>
@@ -2890,13 +2894,13 @@
         <v>232</v>
       </c>
       <c r="W17" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X17" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="390" customHeight="1" x14ac:dyDescent="0.25">
@@ -2904,31 +2908,31 @@
         <v>2021</v>
       </c>
       <c r="B18" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C18" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>274</v>
@@ -2940,13 +2944,13 @@
         <v>11</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>275</v>
@@ -2967,13 +2971,13 @@
         <v>232</v>
       </c>
       <c r="W18" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X18" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2981,47 +2985,47 @@
         <v>2021</v>
       </c>
       <c r="B19" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C19" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>278</v>
@@ -3042,13 +3046,13 @@
         <v>232</v>
       </c>
       <c r="W19" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X19" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3056,50 +3060,50 @@
         <v>2021</v>
       </c>
       <c r="B20" s="8">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C20" s="8">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>233</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M20" s="18">
         <v>13</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R20" s="7" t="s">
         <v>236</v>
@@ -3108,22 +3112,22 @@
         <v>2</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="U20" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>232</v>
       </c>
       <c r="W20" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="X20" s="8">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3187,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,7 +3387,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3406,7 +3410,7 @@
     <col min="16" max="16" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.28515625" customWidth="1"/>
+    <col min="19" max="19" width="73.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3636,7 +3640,7 @@
         <v>288</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -3644,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>123</v>
@@ -3671,31 +3675,31 @@
         <v>238</v>
       </c>
       <c r="K5" s="5">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M5" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O5" s="5">
-        <v>43831</v>
+        <v>43830</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R5" s="19" t="s">
         <v>288</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>303</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3703,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>123</v>
@@ -3730,31 +3734,31 @@
         <v>238</v>
       </c>
       <c r="K6" s="5">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M6" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O6" s="5">
-        <v>43832</v>
+        <v>43830</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -3762,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>123</v>
@@ -3789,31 +3793,31 @@
         <v>238</v>
       </c>
       <c r="K7" s="5">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M7" s="5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O7" s="5">
-        <v>43833</v>
+        <v>43830</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -3821,7 +3825,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>123</v>
@@ -3848,31 +3852,31 @@
         <v>238</v>
       </c>
       <c r="K8" s="5">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M8" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O8" s="5">
-        <v>43834</v>
+        <v>43830</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3880,7 +3884,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>123</v>
@@ -3907,31 +3911,31 @@
         <v>238</v>
       </c>
       <c r="K9" s="5">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M9" s="5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O9" s="5">
-        <v>43835</v>
+        <v>43830</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3939,7 +3943,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>123</v>
@@ -3966,31 +3970,31 @@
         <v>238</v>
       </c>
       <c r="K10" s="5">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M10" s="5">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O10" s="5">
-        <v>43836</v>
+        <v>43830</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -3998,7 +4002,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>123</v>
@@ -4025,31 +4029,31 @@
         <v>238</v>
       </c>
       <c r="K11" s="5">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M11" s="5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O11" s="5">
-        <v>43837</v>
+        <v>43830</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4057,7 +4061,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>123</v>
@@ -4084,31 +4088,31 @@
         <v>238</v>
       </c>
       <c r="K12" s="5">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M12" s="5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O12" s="5">
-        <v>43838</v>
+        <v>43830</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -4116,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>123</v>
@@ -4143,31 +4147,31 @@
         <v>238</v>
       </c>
       <c r="K13" s="5">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M13" s="5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O13" s="5">
-        <v>43839</v>
+        <v>43830</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4175,7 +4179,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>123</v>
@@ -4202,31 +4206,31 @@
         <v>238</v>
       </c>
       <c r="K14" s="5">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M14" s="5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O14" s="5">
-        <v>43840</v>
+        <v>43830</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -4234,7 +4238,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>123</v>
@@ -4261,39 +4265,39 @@
         <v>238</v>
       </c>
       <c r="K15" s="5">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M15" s="5">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O15" s="5">
-        <v>43841</v>
+        <v>43830</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S15" s="19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>376</v>
+      <c r="B16" s="19" t="s">
+        <v>373</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>123</v>
@@ -4320,31 +4324,31 @@
         <v>238</v>
       </c>
       <c r="K16" s="5">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M16" s="5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O16" s="5">
-        <v>43842</v>
+        <v>43830</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>239</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5080,10 +5084,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>123</v>
@@ -5101,7 +5105,7 @@
         <v>141</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>

--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="750" yWindow="675" windowWidth="13815" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="410">
   <si>
     <t>44250</t>
   </si>
@@ -876,9 +881,6 @@
   </si>
   <si>
     <t>Clínica Universitaria de Rehabilitación Integral (C.U.R.e.I.) Servicios de Terapia Física UPP</t>
-  </si>
-  <si>
-    <t>Las tablas adyecentes y criterios que se observan vacios es por que esta institución no las genera.</t>
   </si>
   <si>
     <t>Médicos, psicólogos, entrenadores de equitación, maestros, profesionales de la educación y todas aquellas personas vinculadas a los caballos y las personas con discapacidad física, psicológica y educativa, interesados en la equinoterapia como método de rehabilitación.</t>
@@ -1294,18 +1296,6 @@
     <t>Afirmativa Ficta</t>
   </si>
   <si>
-    <t>01-771-547-75-10 extensión 2264</t>
-  </si>
-  <si>
-    <t>crystycortes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Sin número</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Bárbara </t>
-  </si>
-  <si>
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
@@ -1362,6 +1352,10 @@
   <si>
     <t>$ 1,875.00
 19.48 UMA's</t>
+  </si>
+  <si>
+    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
+Servicio Vigente para el ejercicio 2022.</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1545,9 +1539,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1588,6 +1579,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1636,7 +1630,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1671,7 +1665,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1883,7 +1877,7 @@
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,13 +1887,13 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="73.7109375" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="94" customWidth="1"/>
+    <col min="9" max="9" width="122.5703125" customWidth="1"/>
     <col min="10" max="10" width="85.42578125" customWidth="1"/>
     <col min="11" max="11" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="58.42578125" bestFit="1" customWidth="1"/>
@@ -1928,40 +1922,40 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="32" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:32" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1997,7 +1991,7 @@
       <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M4" t="s">
@@ -2095,7 +2089,7 @@
       <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="M5" t="s">
@@ -2160,42 +2154,42 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-    </row>
-    <row r="7" spans="1:32" ht="39" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+    </row>
+    <row r="7" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -2229,7 +2223,7 @@
       <c r="K7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="24" t="s">
         <v>59</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -2293,15 +2287,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2022</v>
       </c>
       <c r="B8" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>265</v>
@@ -2310,24 +2304,24 @@
         <v>80</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>281</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K8" s="18"/>
-      <c r="L8" s="26"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -2337,51 +2331,49 @@
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="13" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="V8" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>376</v>
-      </c>
       <c r="W8" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="23" t="s">
-        <v>401</v>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD8" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE8" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="90" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2022</v>
       </c>
       <c r="B9" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>266</v>
@@ -2390,24 +2382,24 @@
         <v>80</v>
       </c>
       <c r="F9" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>283</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K9" s="19"/>
-      <c r="L9" s="26"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -2417,51 +2409,49 @@
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U9" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="V9" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="V9" s="12" t="s">
-        <v>378</v>
-      </c>
       <c r="W9" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="23" t="s">
-        <v>401</v>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD9" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE9" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2022</v>
       </c>
       <c r="B10" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>267</v>
@@ -2470,24 +2460,24 @@
         <v>80</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>286</v>
-      </c>
       <c r="I10" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="L10" s="26"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -2497,40 +2487,38 @@
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U10" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="V10" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="W10" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
-      <c r="AA10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="23" t="s">
-        <v>401</v>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD10" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE10" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="75" x14ac:dyDescent="0.25">
@@ -2538,10 +2526,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>268</v>
@@ -2550,28 +2538,28 @@
         <v>80</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="L11" s="27">
+        <v>329</v>
+      </c>
+      <c r="L11" s="26">
         <v>44652</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -2581,51 +2569,49 @@
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
-      <c r="AA11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="23" t="s">
-        <v>401</v>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD11" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE11" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2022</v>
       </c>
       <c r="B12" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C12" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>269</v>
@@ -2634,28 +2620,28 @@
         <v>80</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="L12" s="27">
+        <v>330</v>
+      </c>
+      <c r="L12" s="26">
         <v>44649</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2665,51 +2651,49 @@
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U12" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="V12" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="V12" s="12" t="s">
-        <v>383</v>
-      </c>
       <c r="W12" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
-      <c r="AA12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="23" t="s">
-        <v>401</v>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD12" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE12" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="90" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2022</v>
       </c>
       <c r="B13" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C13" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>270</v>
@@ -2718,28 +2702,28 @@
         <v>80</v>
       </c>
       <c r="F13" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>290</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="L13" s="27">
+        <v>331</v>
+      </c>
+      <c r="L13" s="26">
         <v>44652</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -2749,40 +2733,38 @@
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U13" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="V13" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="W13" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="23" t="s">
-        <v>401</v>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD13" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE13" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="100.5" x14ac:dyDescent="0.25">
@@ -2790,10 +2772,10 @@
         <v>2022</v>
       </c>
       <c r="B14" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C14" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>271</v>
@@ -2802,24 +2784,24 @@
         <v>80</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K14" s="19"/>
-      <c r="L14" s="26"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -2829,40 +2811,38 @@
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U14" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="V14" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="V14" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="W14" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
-      <c r="AA14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="23" t="s">
-        <v>401</v>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD14" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE14" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="75" x14ac:dyDescent="0.25">
@@ -2870,10 +2850,10 @@
         <v>2022</v>
       </c>
       <c r="B15" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C15" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>272</v>
@@ -2882,24 +2862,24 @@
         <v>80</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="26"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -2909,40 +2889,38 @@
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
-      <c r="AA15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="23" t="s">
-        <v>401</v>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD15" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE15" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="75" x14ac:dyDescent="0.25">
@@ -2950,10 +2928,10 @@
         <v>2022</v>
       </c>
       <c r="B16" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C16" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>273</v>
@@ -2962,24 +2940,24 @@
         <v>80</v>
       </c>
       <c r="F16" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>295</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="26"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -2989,51 +2967,49 @@
       </c>
       <c r="R16" s="8"/>
       <c r="S16" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
-      <c r="AA16" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="23" t="s">
-        <v>401</v>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD16" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE16" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2022</v>
       </c>
       <c r="B17" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C17" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>274</v>
@@ -3042,24 +3018,24 @@
         <v>80</v>
       </c>
       <c r="F17" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>297</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K17" s="19"/>
-      <c r="L17" s="26"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -3069,51 +3045,49 @@
       </c>
       <c r="R17" s="8"/>
       <c r="S17" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
-      <c r="AA17" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="23" t="s">
-        <v>401</v>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD17" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE17" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="390" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="360" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2022</v>
       </c>
       <c r="B18" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C18" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>275</v>
@@ -3122,28 +3096,28 @@
         <v>80</v>
       </c>
       <c r="F18" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>299</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="L18" s="27">
+        <v>332</v>
+      </c>
+      <c r="L18" s="26">
         <v>44649</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -3153,40 +3127,38 @@
       </c>
       <c r="R18" s="8"/>
       <c r="S18" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U18" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="V18" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>392</v>
-      </c>
       <c r="W18" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="23" t="s">
-        <v>401</v>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD18" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE18" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,10 +3166,10 @@
         <v>2022</v>
       </c>
       <c r="B19" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C19" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>276</v>
@@ -3206,24 +3178,24 @@
         <v>80</v>
       </c>
       <c r="F19" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>301</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K19" s="19"/>
-      <c r="L19" s="26"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -3233,51 +3205,49 @@
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
-      <c r="AA19" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="23" t="s">
-        <v>401</v>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD19" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE19" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF19" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="180" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2022</v>
       </c>
       <c r="B20" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C20" s="9">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>277</v>
@@ -3286,24 +3256,24 @@
         <v>80</v>
       </c>
       <c r="F20" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>303</v>
-      </c>
       <c r="H20" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="26"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -3313,40 +3283,38 @@
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V20" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="23" t="s">
-        <v>401</v>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AD20" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AE20" s="9">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3552,10 +3520,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3732,80 +3700,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L4" s="7">
-        <v>83</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P4" s="7">
-        <v>43830</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4">
-      <formula1>Hidden_2_Tabla_3507106</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4">
-      <formula1>Hidden_3_Tabla_35071013</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D86">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D77">
       <formula1>Hidden_1_Tabla_3507013</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H86">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H77">
       <formula1>Hidden_2_Tabla_3507017</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O5:O86">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O77">
       <formula1>Hidden_3_Tabla_35070114</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4574,37 +4480,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K4" s="7">
         <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4616,16 +4522,16 @@
         <v>43830</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4633,37 +4539,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K5" s="7">
         <v>83</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4675,16 +4581,16 @@
         <v>43830</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4692,37 +4598,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7">
         <v>83</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4734,16 +4640,16 @@
         <v>43830</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q6" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4751,37 +4657,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7">
         <v>83</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4793,16 +4699,16 @@
         <v>43830</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R7" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4810,37 +4716,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7">
         <v>83</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4852,16 +4758,16 @@
         <v>43830</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4869,37 +4775,37 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K9" s="7">
         <v>83</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -4911,16 +4817,16 @@
         <v>43830</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R9" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4928,37 +4834,37 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7">
         <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4970,16 +4876,16 @@
         <v>43830</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R10" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4987,37 +4893,37 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7">
         <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5029,16 +4935,16 @@
         <v>43830</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R11" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -5046,37 +4952,37 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K12" s="7">
         <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -5088,16 +4994,16 @@
         <v>43830</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R12" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -5105,37 +5011,37 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7">
         <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5147,16 +5053,16 @@
         <v>43830</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R13" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5164,37 +5070,37 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7">
         <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -5206,16 +5112,16 @@
         <v>43830</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R14" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5223,37 +5129,37 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I15" s="7">
         <v>1</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K15" s="7">
         <v>83</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -5265,16 +5171,16 @@
         <v>43830</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R15" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -5282,37 +5188,37 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7">
         <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5324,16 +5230,16 @@
         <v>43830</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="S16" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1630,7 +1625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1665,7 +1660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1876,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView tabSelected="1" topLeftCell="Y2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,10 +2287,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>265</v>
@@ -2356,10 +2351,10 @@
         <v>395</v>
       </c>
       <c r="AD8" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE8" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF8" s="10" t="s">
         <v>409</v>
@@ -2370,10 +2365,10 @@
         <v>2022</v>
       </c>
       <c r="B9" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C9" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>266</v>
@@ -2434,10 +2429,10 @@
         <v>395</v>
       </c>
       <c r="AD9" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE9" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF9" s="10" t="s">
         <v>409</v>
@@ -2448,10 +2443,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C10" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>267</v>
@@ -2512,10 +2507,10 @@
         <v>395</v>
       </c>
       <c r="AD10" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE10" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF10" s="10" t="s">
         <v>409</v>
@@ -2526,10 +2521,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C11" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>268</v>
@@ -2594,10 +2589,10 @@
         <v>395</v>
       </c>
       <c r="AD11" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE11" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF11" s="10" t="s">
         <v>409</v>
@@ -2608,10 +2603,10 @@
         <v>2022</v>
       </c>
       <c r="B12" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C12" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>269</v>
@@ -2676,10 +2671,10 @@
         <v>395</v>
       </c>
       <c r="AD12" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE12" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF12" s="10" t="s">
         <v>409</v>
@@ -2690,10 +2685,10 @@
         <v>2022</v>
       </c>
       <c r="B13" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C13" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>270</v>
@@ -2758,10 +2753,10 @@
         <v>395</v>
       </c>
       <c r="AD13" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE13" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF13" s="10" t="s">
         <v>409</v>
@@ -2772,10 +2767,10 @@
         <v>2022</v>
       </c>
       <c r="B14" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C14" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>271</v>
@@ -2836,10 +2831,10 @@
         <v>395</v>
       </c>
       <c r="AD14" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE14" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF14" s="10" t="s">
         <v>409</v>
@@ -2850,10 +2845,10 @@
         <v>2022</v>
       </c>
       <c r="B15" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C15" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>272</v>
@@ -2914,10 +2909,10 @@
         <v>395</v>
       </c>
       <c r="AD15" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE15" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF15" s="10" t="s">
         <v>409</v>
@@ -2928,10 +2923,10 @@
         <v>2022</v>
       </c>
       <c r="B16" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C16" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>273</v>
@@ -2992,10 +2987,10 @@
         <v>395</v>
       </c>
       <c r="AD16" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE16" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF16" s="10" t="s">
         <v>409</v>
@@ -3006,10 +3001,10 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C17" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>274</v>
@@ -3070,10 +3065,10 @@
         <v>395</v>
       </c>
       <c r="AD17" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE17" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF17" s="10" t="s">
         <v>409</v>
@@ -3084,10 +3079,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C18" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>275</v>
@@ -3152,10 +3147,10 @@
         <v>395</v>
       </c>
       <c r="AD18" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE18" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF18" s="10" t="s">
         <v>409</v>
@@ -3166,10 +3161,10 @@
         <v>2022</v>
       </c>
       <c r="B19" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C19" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>276</v>
@@ -3230,10 +3225,10 @@
         <v>395</v>
       </c>
       <c r="AD19" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE19" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF19" s="10" t="s">
         <v>409</v>
@@ -3244,10 +3239,10 @@
         <v>2022</v>
       </c>
       <c r="B20" s="9">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C20" s="9">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>277</v>
@@ -3308,10 +3303,10 @@
         <v>395</v>
       </c>
       <c r="AD20" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AE20" s="9">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AF20" s="10" t="s">
         <v>409</v>

--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{721D57F6-C21E-4F53-A29F-CB85921B7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1356,7 +1362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1625,7 +1631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1658,9 +1664,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1693,6 +1716,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1868,11 +1908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2224,7 @@
       <c r="AE6" s="28"/>
       <c r="AF6" s="28"/>
     </row>
-    <row r="7" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -2287,10 +2327,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>265</v>
@@ -2351,10 +2391,10 @@
         <v>395</v>
       </c>
       <c r="AD8" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE8" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF8" s="10" t="s">
         <v>409</v>
@@ -2365,10 +2405,10 @@
         <v>2022</v>
       </c>
       <c r="B9" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C9" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>266</v>
@@ -2429,10 +2469,10 @@
         <v>395</v>
       </c>
       <c r="AD9" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE9" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF9" s="10" t="s">
         <v>409</v>
@@ -2443,10 +2483,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C10" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>267</v>
@@ -2507,10 +2547,10 @@
         <v>395</v>
       </c>
       <c r="AD10" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE10" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF10" s="10" t="s">
         <v>409</v>
@@ -2521,10 +2561,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C11" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>268</v>
@@ -2589,10 +2629,10 @@
         <v>395</v>
       </c>
       <c r="AD11" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE11" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF11" s="10" t="s">
         <v>409</v>
@@ -2603,10 +2643,10 @@
         <v>2022</v>
       </c>
       <c r="B12" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C12" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>269</v>
@@ -2671,10 +2711,10 @@
         <v>395</v>
       </c>
       <c r="AD12" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE12" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF12" s="10" t="s">
         <v>409</v>
@@ -2685,10 +2725,10 @@
         <v>2022</v>
       </c>
       <c r="B13" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C13" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>270</v>
@@ -2753,10 +2793,10 @@
         <v>395</v>
       </c>
       <c r="AD13" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE13" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF13" s="10" t="s">
         <v>409</v>
@@ -2767,10 +2807,10 @@
         <v>2022</v>
       </c>
       <c r="B14" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C14" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>271</v>
@@ -2831,10 +2871,10 @@
         <v>395</v>
       </c>
       <c r="AD14" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE14" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF14" s="10" t="s">
         <v>409</v>
@@ -2845,10 +2885,10 @@
         <v>2022</v>
       </c>
       <c r="B15" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C15" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>272</v>
@@ -2909,10 +2949,10 @@
         <v>395</v>
       </c>
       <c r="AD15" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE15" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF15" s="10" t="s">
         <v>409</v>
@@ -2923,10 +2963,10 @@
         <v>2022</v>
       </c>
       <c r="B16" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C16" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>273</v>
@@ -2987,10 +3027,10 @@
         <v>395</v>
       </c>
       <c r="AD16" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE16" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF16" s="10" t="s">
         <v>409</v>
@@ -3001,10 +3041,10 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C17" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>274</v>
@@ -3065,10 +3105,10 @@
         <v>395</v>
       </c>
       <c r="AD17" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE17" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF17" s="10" t="s">
         <v>409</v>
@@ -3079,10 +3119,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C18" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>275</v>
@@ -3147,10 +3187,10 @@
         <v>395</v>
       </c>
       <c r="AD18" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE18" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF18" s="10" t="s">
         <v>409</v>
@@ -3161,10 +3201,10 @@
         <v>2022</v>
       </c>
       <c r="B19" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C19" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>276</v>
@@ -3225,10 +3265,10 @@
         <v>395</v>
       </c>
       <c r="AD19" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE19" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF19" s="10" t="s">
         <v>409</v>
@@ -3239,10 +3279,10 @@
         <v>2022</v>
       </c>
       <c r="B20" s="9">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C20" s="9">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>277</v>
@@ -3303,10 +3343,10 @@
         <v>395</v>
       </c>
       <c r="AD20" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AE20" s="9">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AF20" s="10" t="s">
         <v>409</v>
@@ -3323,25 +3363,25 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E9 E21:E35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E9 E21:E35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_14</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K12" r:id="rId1"/>
-    <hyperlink ref="K13" r:id="rId2"/>
-    <hyperlink ref="K18" r:id="rId3"/>
-    <hyperlink ref="K11" r:id="rId4"/>
-    <hyperlink ref="V13" r:id="rId5" display="https://drive.google.com/file/d/1XsxPilRGjfcCii89kEATo4SLMtWSXW6b/view?usp=sharing"/>
-    <hyperlink ref="AB8" r:id="rId6"/>
-    <hyperlink ref="AB9:AB20" r:id="rId7" display="https://ruts.hidalgo.gob.mx/"/>
+    <hyperlink ref="K12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V13" r:id="rId5" display="https://drive.google.com/file/d/1XsxPilRGjfcCii89kEATo4SLMtWSXW6b/view?usp=sharing" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AB8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AB9:AB20" r:id="rId7" display="https://ruts.hidalgo.gob.mx/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3514,7 +3554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -3697,13 +3737,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D77">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D77" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>Hidden_1_Tabla_3507013</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H77">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H77" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>Hidden_2_Tabla_3507017</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O77">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O77" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>Hidden_3_Tabla_35070114</formula1>
     </dataValidation>
   </dataValidations>
@@ -3712,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3855,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4073,7 +4113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4246,7 +4286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4269,7 +4309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
@@ -5239,13 +5279,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C201" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Hidden_1_Tabla_3507102</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>Hidden_2_Tabla_3507106</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N201" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>Hidden_3_Tabla_35071013</formula1>
     </dataValidation>
   </dataValidations>
@@ -5254,7 +5294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5387,7 +5427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5605,7 +5645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5778,7 +5818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -5951,13 +5991,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D47" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Hidden_1_Tabla_5660933</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H47" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>Hidden_2_Tabla_5660937</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O47" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>Hidden_3_Tabla_56609314</formula1>
     </dataValidation>
   </dataValidations>
@@ -5966,7 +6006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6109,7 +6149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{721D57F6-C21E-4F53-A29F-CB85921B7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1297,72 +1291,72 @@
     <t>Afirmativa Ficta</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
     <t>https://ruts.hidalgo.gob.mx/</t>
-  </si>
-  <si>
-    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2022.</t>
-  </si>
-  <si>
-    <t>$60.00
- 0.62 UMA´s</t>
   </si>
   <si>
     <t>$287.00
  2.98 UMA's</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,254.00 
+    <t>$ 2,021.00
+19.48 UMA's</t>
+  </si>
+  <si>
+    <t>$38.00
+ 0.37 UMA's</t>
+  </si>
+  <si>
+    <t>$167.00
+ 1.61 UMA's</t>
+  </si>
+  <si>
+    <t>$26.00
+0.25 UMA's</t>
+  </si>
+  <si>
+    <t>$1,750.00      
+ 16.87 UMA's</t>
+  </si>
+  <si>
+    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
+Servicio Vigente para el ejercicio 2023.</t>
+  </si>
+  <si>
+    <t>Unidad de Transparencia Gubernamental (UPP)</t>
+  </si>
+  <si>
+    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+$514
+ 4.96 UMA's
+$1,352.00
+13.03  UMA's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,719.00  16.57   UMA's
+$4,298.00   41.43 UMA's
+$3,438.00 33.14 UMA's
+$7,366.00  71.01 UMA's </t>
+  </si>
+  <si>
+    <t>$64.00
+0.62 UMA's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,352.00 
 13.03 UMA´s </t>
   </si>
   <si>
-    <t>$60.00
-0.62 UMA's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,595.00  16.57   UMA's
-$3,988.00   41.43 UMA's
-$3,190.00 33.14 UMA's
-$6,835.00  71.01 UMA's </t>
-  </si>
-  <si>
-    <t>$36.00
- 0.37 UMA's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$477
- 4.96 UMA's
-$1,254.00
-13.03  UMA's</t>
-  </si>
-  <si>
-    <t>$1,624.00      
- 16.87 UMA's</t>
-  </si>
-  <si>
-    <t>$24.00
-0.25 UMA's</t>
-  </si>
-  <si>
-    <t>$155.00
- 1.61 UMA's</t>
-  </si>
-  <si>
-    <t>$ 1,875.00
-19.48 UMA's</t>
-  </si>
-  <si>
-    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
-Servicio Vigente para el ejercicio 2022.</t>
+    <t>$64.00
+ 0.62 UMA´s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1419,7 +1413,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1439,6 +1433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1544,14 +1544,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1631,7 +1631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1664,26 +1664,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1716,23 +1699,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1908,11 +1874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2224,7 @@
       <c r="K7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="26" t="s">
         <v>59</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -2324,13 +2290,13 @@
     </row>
     <row r="8" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>265</v>
@@ -2354,7 +2320,7 @@
         <v>315</v>
       </c>
       <c r="K8" s="18"/>
-      <c r="L8" s="25"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="3" t="s">
         <v>333</v>
       </c>
@@ -2366,10 +2332,10 @@
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="13" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>374</v>
@@ -2385,30 +2351,30 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD8" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE8" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C9" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>266</v>
@@ -2432,7 +2398,7 @@
         <v>316</v>
       </c>
       <c r="K9" s="19"/>
-      <c r="L9" s="25"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="3" t="s">
         <v>334</v>
       </c>
@@ -2444,10 +2410,10 @@
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>376</v>
@@ -2463,30 +2429,30 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD9" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE9" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C10" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>267</v>
@@ -2510,7 +2476,7 @@
         <v>317</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="3" t="s">
         <v>335</v>
       </c>
@@ -2522,10 +2488,10 @@
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>378</v>
@@ -2541,30 +2507,30 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD10" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE10" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C11" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>268</v>
@@ -2590,8 +2556,8 @@
       <c r="K11" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="L11" s="26">
-        <v>44652</v>
+      <c r="L11" s="25">
+        <v>45014</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>336</v>
@@ -2604,10 +2570,10 @@
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>378</v>
@@ -2623,30 +2589,30 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD11" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE11" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B12" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C12" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>269</v>
@@ -2672,8 +2638,8 @@
       <c r="K12" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="L12" s="26">
-        <v>44649</v>
+      <c r="L12" s="25">
+        <v>45014</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>337</v>
@@ -2686,10 +2652,10 @@
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>381</v>
@@ -2705,30 +2671,30 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD12" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE12" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B13" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C13" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>270</v>
@@ -2754,8 +2720,8 @@
       <c r="K13" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="L13" s="26">
-        <v>44652</v>
+      <c r="L13" s="25">
+        <v>45014</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>338</v>
@@ -2768,10 +2734,10 @@
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>383</v>
@@ -2787,30 +2753,30 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD13" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE13" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C14" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>271</v>
@@ -2834,7 +2800,7 @@
         <v>321</v>
       </c>
       <c r="K14" s="19"/>
-      <c r="L14" s="25"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="3" t="s">
         <v>339</v>
       </c>
@@ -2846,10 +2812,10 @@
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>385</v>
@@ -2865,30 +2831,30 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD14" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE14" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B15" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C15" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>272</v>
@@ -2912,7 +2878,7 @@
         <v>322</v>
       </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="25"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="3" t="s">
         <v>340</v>
       </c>
@@ -2924,10 +2890,10 @@
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>381</v>
@@ -2943,30 +2909,30 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD15" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE15" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C16" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>273</v>
@@ -2990,7 +2956,7 @@
         <v>323</v>
       </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="13" t="s">
         <v>341</v>
       </c>
@@ -3002,10 +2968,10 @@
       </c>
       <c r="R16" s="8"/>
       <c r="S16" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>385</v>
@@ -3021,30 +2987,30 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD16" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE16" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B17" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C17" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>274</v>
@@ -3068,7 +3034,7 @@
         <v>324</v>
       </c>
       <c r="K17" s="19"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="3" t="s">
         <v>342</v>
       </c>
@@ -3080,10 +3046,10 @@
       </c>
       <c r="R17" s="8"/>
       <c r="S17" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>378</v>
@@ -3099,30 +3065,30 @@
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD17" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE17" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="360" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C18" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>275</v>
@@ -3148,8 +3114,8 @@
       <c r="K18" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="L18" s="26">
-        <v>44649</v>
+      <c r="L18" s="25">
+        <v>45014</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>343</v>
@@ -3162,10 +3128,10 @@
       </c>
       <c r="R18" s="8"/>
       <c r="S18" s="3" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>390</v>
@@ -3181,30 +3147,30 @@
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD18" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE18" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C19" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>276</v>
@@ -3228,7 +3194,7 @@
         <v>326</v>
       </c>
       <c r="K19" s="19"/>
-      <c r="L19" s="25"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="3" t="s">
         <v>344</v>
       </c>
@@ -3240,10 +3206,10 @@
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>378</v>
@@ -3259,30 +3225,30 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD19" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE19" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF19" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B20" s="9">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C20" s="9">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>277</v>
@@ -3306,7 +3272,7 @@
         <v>327</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="25"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="4" t="s">
         <v>345</v>
       </c>
@@ -3318,10 +3284,10 @@
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="3" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>378</v>
@@ -3337,19 +3303,19 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AD20" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AE20" s="9">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3363,25 +3329,25 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E9 E21:E35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E9 E21:E35">
       <formula1>Hidden_14</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="V13" r:id="rId5" display="https://drive.google.com/file/d/1XsxPilRGjfcCii89kEATo4SLMtWSXW6b/view?usp=sharing" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AB8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AB9:AB20" r:id="rId7" display="https://ruts.hidalgo.gob.mx/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K12" r:id="rId1"/>
+    <hyperlink ref="K13" r:id="rId2"/>
+    <hyperlink ref="K18" r:id="rId3"/>
+    <hyperlink ref="K11" r:id="rId4"/>
+    <hyperlink ref="V13" r:id="rId5" display="https://drive.google.com/file/d/1XsxPilRGjfcCii89kEATo4SLMtWSXW6b/view?usp=sharing"/>
+    <hyperlink ref="AB8" r:id="rId6"/>
+    <hyperlink ref="AB9:AB20" r:id="rId7" display="https://ruts.hidalgo.gob.mx/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3554,7 +3520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -3737,13 +3703,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D77" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D77">
       <formula1>Hidden_1_Tabla_3507013</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H77" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H77">
       <formula1>Hidden_2_Tabla_3507017</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O77" xr:uid="{00000000-0002-0000-0A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O77">
       <formula1>Hidden_3_Tabla_35070114</formula1>
     </dataValidation>
   </dataValidations>
@@ -3752,7 +3718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3895,7 +3861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4113,7 +4079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4286,7 +4252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4309,10 +4275,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="P3" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -5279,13 +5245,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C201" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C201">
       <formula1>Hidden_1_Tabla_3507102</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201">
       <formula1>Hidden_2_Tabla_3507106</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N201" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N201">
       <formula1>Hidden_3_Tabla_35071013</formula1>
     </dataValidation>
   </dataValidations>
@@ -5294,7 +5260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5427,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5645,7 +5611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5818,7 +5784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -5991,13 +5957,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D47" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D47">
       <formula1>Hidden_1_Tabla_5660933</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H47" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H47">
       <formula1>Hidden_2_Tabla_5660937</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O47" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O47">
       <formula1>Hidden_3_Tabla_56609314</formula1>
     </dataValidation>
   </dataValidations>
@@ -6006,7 +5972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6149,7 +6115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f19UPPachuca.xlsx
+++ b/xlsx/a69_f19UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADD2F7B-E329-4784-8DF5-D1DF70F6FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="420">
   <si>
     <t>44250</t>
   </si>
@@ -200,47 +206,47 @@
     <t>Tipo de servicio (catálogo)</t>
   </si>
   <si>
-    <t>Tipo de usuario y/o población objetivo</t>
-  </si>
-  <si>
-    <t>Descripción del servicio</t>
+    <t>Tipo de población usuaria y/o población objetivo (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>Descripción del objetivo del servicio (Redactado con perspectiva de género)</t>
   </si>
   <si>
     <t>Modalidad del servicio</t>
   </si>
   <si>
-    <t>Enumerar y detallar los requisitos</t>
-  </si>
-  <si>
-    <t>Documentos requeridos, en su caso</t>
+    <t>Enumerar y detallar los requisitos (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>Documentos requeridos, en su caso (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Hipervínculo a los formatos respectivo(s) publicado(s) en medio oficial</t>
   </si>
   <si>
-    <t>Última fecha de publicación del formato en el medio de difusión oficial</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Última fecha de publicación del formato en el medio de difusión oficial</t>
   </si>
   <si>
     <t>Tiempo de respuesta</t>
   </si>
   <si>
-    <t>Plazo con el que cuenta el sujeto obligado para prevenir al solicitante</t>
-  </si>
-  <si>
-    <t>Plazo con el que cuenta el solicitante para cumplir con la prevención</t>
-  </si>
-  <si>
-    <t>Vigencia de los avisos, permisos, licencias, autorizaciones, registros y demás resoluciones que se emitan</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Plazo con el que cuenta el sujeto obligado para prevenir al solicitante</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Plazo con el que cuenta el solicitante para cumplir con la prevención</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Vigencia de los avisos, permisos, licencias, autorizaciones, registros y demás resoluciones que se emitan</t>
   </si>
   <si>
     <t>Área en la que se proporciona el servicio y los datos de contacto 
 Tabla_350710</t>
   </si>
   <si>
-    <t>Objetivo de la inspección o verificación, en caso de que se requiera para llevar a cabo el servicio</t>
-  </si>
-  <si>
-    <t>Monto de los derechos o aprovechamientos aplicables, en su caso, o la forma de determinar dicho monto, así como las alternativas para realizar el pago. En su caso, especificar que es gratuito</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Objetivo de la inspección o verificación, en caso de que se requiera para llevar a cabo el servicio</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Monto de los derechos o aprovechamientos aplicables, en su caso, o la forma de determinar dicho monto, así como las alternativas para realizar el pago. En su caso, especificar que es gratuito</t>
   </si>
   <si>
     <t>Sustento legal para su cobro</t>
@@ -252,13 +258,13 @@
     <t>Fundamento jurídico-administrativo del servicio</t>
   </si>
   <si>
-    <t>Derechos del usuario ante la negativa o la falta</t>
-  </si>
-  <si>
-    <t>Información que deberá conservar para fines de acreditación, inspección y verificación con motivo del servicio</t>
-  </si>
-  <si>
-    <t>Información adicional del servicio, en su caso</t>
+    <t>Derechos de la población usuaria ante la negativa o la falta ante la prestación del servicio (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Información que deberá conservar para fines de acreditación, inspección y verificación con motivo del servicio</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Información adicional del servicio, en su caso (Redactada con perspectiva de género)</t>
   </si>
   <si>
     <t>Otro medio que permita el envío de consultas y documentos 
@@ -395,7 +401,7 @@
     <t>Teléfono y extensión en su caso, de contacto de la oficina de atención</t>
   </si>
   <si>
-    <t>Medios electrónicos de comunicación de la oficina de atención y/o del responsable del Servicio</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Medios electrónicos de comunicación de la oficina de atención y/o del responsable del Servicio</t>
   </si>
   <si>
     <t>Horario de atención (días y horas)</t>
@@ -731,102 +737,132 @@
     <t>75663</t>
   </si>
   <si>
-    <t>Teléfono(s) y, en su caso, extensión(es)</t>
-  </si>
-  <si>
-    <t>Medios electrónicos de comunicación</t>
-  </si>
-  <si>
-    <t>Domicilio: Tipo vialidad (catálogo)</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Teléfono(s) y, en su caso, extensión(es)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Medios electrónicos de comunicación</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Domicilio: Tipo vialidad (catálogo)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre de vialidad</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Número exterior</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Número interior, en su caso</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Tipo de asentamiento (catálogo)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre del asentamiento</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Clave de la localidad</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre de la localidad</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Clave del municipio</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre del municipio o delegación</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Clave de la entidad federativa</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Nombre de la entidad federativa (catálogo)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 02/07/2021 -&gt; Código postal</t>
+  </si>
+  <si>
+    <t>Viaducto</t>
+  </si>
+  <si>
+    <t>Terracería</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Coahuila de Zaragoza</t>
+  </si>
+  <si>
+    <t>Veracruz de Ignacio de la Llave</t>
+  </si>
+  <si>
+    <t>45347</t>
+  </si>
+  <si>
+    <t>75678</t>
+  </si>
+  <si>
+    <t>45349</t>
+  </si>
+  <si>
+    <t>45350</t>
+  </si>
+  <si>
+    <t>45351</t>
+  </si>
+  <si>
+    <t>45352</t>
+  </si>
+  <si>
+    <t>45353</t>
+  </si>
+  <si>
+    <t>45354</t>
+  </si>
+  <si>
+    <t>45355</t>
+  </si>
+  <si>
+    <t>45356</t>
+  </si>
+  <si>
+    <t>45357</t>
+  </si>
+  <si>
+    <t>45358</t>
+  </si>
+  <si>
+    <t>45359</t>
+  </si>
+  <si>
+    <t>45360</t>
+  </si>
+  <si>
+    <t>45361</t>
+  </si>
+  <si>
+    <t>45362</t>
+  </si>
+  <si>
+    <t>Teléfono, en su caso extensión</t>
+  </si>
+  <si>
+    <t>Tipo de vialidad</t>
   </si>
   <si>
     <t>Nombre de vialidad</t>
   </si>
   <si>
-    <t>Tipo de asentamiento (catálogo)</t>
-  </si>
-  <si>
-    <t>Nombre del asentamiento</t>
+    <t>Tipo de asentamineto</t>
+  </si>
+  <si>
+    <t>Nombre de asentamiento</t>
   </si>
   <si>
     <t>Clave de la localidad</t>
   </si>
   <si>
-    <t>Viaducto</t>
-  </si>
-  <si>
-    <t>Terracería</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Coahuila de Zaragoza</t>
-  </si>
-  <si>
-    <t>Veracruz de Ignacio de la Llave</t>
-  </si>
-  <si>
-    <t>45347</t>
-  </si>
-  <si>
-    <t>75678</t>
-  </si>
-  <si>
-    <t>45349</t>
-  </si>
-  <si>
-    <t>45350</t>
-  </si>
-  <si>
-    <t>45351</t>
-  </si>
-  <si>
-    <t>45352</t>
-  </si>
-  <si>
-    <t>45353</t>
-  </si>
-  <si>
-    <t>45354</t>
-  </si>
-  <si>
-    <t>45355</t>
-  </si>
-  <si>
-    <t>45356</t>
-  </si>
-  <si>
-    <t>45357</t>
-  </si>
-  <si>
-    <t>45358</t>
-  </si>
-  <si>
-    <t>45359</t>
-  </si>
-  <si>
-    <t>45360</t>
-  </si>
-  <si>
-    <t>45361</t>
-  </si>
-  <si>
-    <t>45362</t>
-  </si>
-  <si>
-    <t>Teléfono, en su caso extensión</t>
-  </si>
-  <si>
-    <t>Tipo de vialidad</t>
-  </si>
-  <si>
-    <t>Tipo de asentamineto</t>
-  </si>
-  <si>
-    <t>Nombre de asentamiento</t>
-  </si>
-  <si>
     <t>Nombre del municipio o Delegación</t>
   </si>
   <si>
@@ -842,119 +878,58 @@
     <t>Curso/Taller de Equinoterapia UPP</t>
   </si>
   <si>
-    <t>Servicios de Equinoterapia UPP</t>
-  </si>
-  <si>
-    <t>Certificado Parcial de Estudios y/o Carta de Pasante UPP</t>
-  </si>
-  <si>
-    <t>Constancia Escolar UPP</t>
-  </si>
-  <si>
-    <t>Constancia de no adeudos UPP</t>
-  </si>
-  <si>
-    <t>Curso propedéutico UPP</t>
-  </si>
-  <si>
-    <t>Ficha para Examen de Admisión UPP</t>
-  </si>
-  <si>
-    <t>Historial Académico UPP</t>
-  </si>
-  <si>
-    <t>Reisncripción UPP</t>
-  </si>
-  <si>
-    <t>Reposición de Credencial Escolar UPP</t>
-  </si>
-  <si>
-    <t>Titulación Nivel Licenciatura/Ingeniería y Posgrado UPP</t>
-  </si>
-  <si>
-    <t>Equivalencia de Estudios UPP</t>
-  </si>
-  <si>
-    <t>Clínica Universitaria de Rehabilitación Integral (C.U.R.e.I.) Servicios de Terapia Física UPP</t>
-  </si>
-  <si>
-    <t>Médicos, psicólogos, entrenadores de equitación, maestros, profesionales de la educación y todas aquellas personas vinculadas a los caballos y las personas con discapacidad física, psicológica y educativa, interesados en la equinoterapia como método de rehabilitación.</t>
-  </si>
-  <si>
     <t>Brindar conocimientos teóricos y prácticos básicos sobre la terapia con caballos para personas con discapacidad  y manejo de pacientes sobre el caballo.</t>
   </si>
   <si>
     <t>Presencial</t>
-  </si>
-  <si>
-    <t>Personas con alguna discapacidad física, mental, educacional y / o social de los 6 meses de edad en adelante.</t>
-  </si>
-  <si>
-    <t>Ofrecer terapia para la rehabilitación y/o habilitación por medio del caballo a personas con discapacidad física, psicológica, pedagógica y social con personal especializado.</t>
-  </si>
-  <si>
-    <t>Estudiantes de la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>Avalar el avance académico del estudiante para los fines que requiera.</t>
-  </si>
-  <si>
-    <t>En Linea</t>
-  </si>
-  <si>
-    <t>Avalar mediante un documento oficial la situación académica actual del alumnado.</t>
-  </si>
-  <si>
-    <t>Avalar que no existe registro de adeudo alguno en la UPPachuca para los fines que requiera el alumnado</t>
-  </si>
-  <si>
-    <t>Aspirantes que desean participar en el proceso de admisión</t>
-  </si>
-  <si>
-    <t>Brindar un servicio de preparación académica para aspirantes interesados/as en ingresar a estudiar las carreras de nivel licenciatura/ingeniería de modalidad cuatrimestral.</t>
-  </si>
-  <si>
-    <t>Al público en general interesados/as en ingresar a estudiar a la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ficha para Examen de Admisión.</t>
-  </si>
-  <si>
-    <t>Avalar mediante un documento oficial las calificaciones obtenidas del alumnado a la fecha de emisión del documento.</t>
-  </si>
-  <si>
-    <t>El/la estudiante</t>
-  </si>
-  <si>
-    <t>Informar a los estudiantes de la Universidad Politécnica de Pachuca sobre el proceso de reinscripción para dar continuidad a sus estudios.</t>
-  </si>
-  <si>
-    <t>Estudiantes activos de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Reposición de credencial que te acredita como  Estudiante de la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>Egresados/as de Licenciatura/Ingeniería o Posgrado de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificar mediante el Título Profesional, Diploma de Especialidad o Grado Académico la Conclusión de los Estudios. </t>
-  </si>
-  <si>
-    <t>El(la) aspirante que desea  concluir sus estudios de nivel licenciatura.</t>
-  </si>
-  <si>
-    <t>Reconocer estudios realizados en otra Institución para concluir una Licenciatura o Ingeniería de las que oferta la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>Público en general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clínica de rehabilitación enfocada a la prevención, tratamiento y rehabilitación de personas con limitaciones físicas, funcionales e intelectuales, para impulsar la recuperación, potenciación y mantenimiento integral de sus capacidades y así integrar a la persona en su entorno biopsicosocial mejorando su calidad de vida. </t>
   </si>
   <si>
     <t xml:space="preserve">1.- Comprobante de pago.                           
 2.- Identificación Oficial (IFE, INE o Pasaporte Vigente). </t>
+  </si>
+  <si>
+    <t>1.- Autorización medica 
+2.- Diagnóstico médico</t>
+  </si>
+  <si>
+    <t>30 minutos</t>
+  </si>
+  <si>
+    <t>$ 2,021.00
+19.48 UMA's</t>
+  </si>
+  <si>
+    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2023.</t>
+  </si>
+  <si>
+    <t>Área de caja de la Universidad Politécnica de Pachuca
+Institución Bancaria Banorte al número de cuenta 0654922554
+Clabe Interbancaria si es que es transferencia de otros bancos: 072290006549225544</t>
+  </si>
+  <si>
+    <t>Articulo 3o derecho a la educacion y Salud (artículo 25) Derecho a gozar del más alto nivel posible de salud, sin discriminación por motivos de discapacidad. Habilitación y rehabilitación (artículo 26) Derecho a recibir y ser parte de servicios y programas generales de habilitación y rehabilitación, en particular en los ámbitos de la salud, el empleo, la educación y los servicios sociales</t>
+  </si>
+  <si>
+    <t>Afirmativa Ficta</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/</t>
+  </si>
+  <si>
+    <t>Unidad de Transparencia Gubernamental (UPP)</t>
+  </si>
+  <si>
+    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
+Servicio Vigente para el ejercicio 2023.</t>
+  </si>
+  <si>
+    <t>Servicios de Equinoterapia UPP</t>
+  </si>
+  <si>
+    <t>Personas con alguna discapacidad física, mental, educacional y / o social de los 6 meses de edad en adelante.</t>
+  </si>
+  <si>
+    <t>Ofrecer terapia para la rehabilitación y/o habilitación por medio del caballo a personas con discapacidad física, psicológica, pedagógica y social con personal especializado.</t>
   </si>
   <si>
     <t>1.- Certificado Médico especificando para la actividad de Equinoterapia.                                                                             
@@ -962,8 +937,50 @@
 3. Comprobante de pago.</t>
   </si>
   <si>
+    <t>1.- Certificado Médico.
+2.- Comprobante de Pago.</t>
+  </si>
+  <si>
+    <t>1 hora</t>
+  </si>
+  <si>
+    <t>$38.00
+ 0.37 UMA's</t>
+  </si>
+  <si>
+    <t>Área de caja de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Salud (artículo 25) Derecho a gozar del más alto nivel posible de salud, sin discriminación por motivos de discapacidad. Habilitación y rehabilitación (artículo 26) Derecho a recibir y ser parte de servicios y programas generales de habilitación y rehabilitación, en particular en los ámbitos de la salud, el empleo, la educación y los servicios sociales.</t>
+  </si>
+  <si>
+    <t>Certificado Parcial de Estudios y/o Carta de Pasante UPP</t>
+  </si>
+  <si>
+    <t>En Linea</t>
+  </si>
+  <si>
     <t>1.- 2 fotografías de frente tamaño infantil, blanco y negro con fondo blanco tomadas en estudio fotográfico, impresas en papel mate con retoque. Se sugiere vestimenta formal.
 2.- Comprobante de pago.</t>
+  </si>
+  <si>
+    <t>1.- Comprobante de pago.</t>
+  </si>
+  <si>
+    <t>1 hora 10 minutos</t>
+  </si>
+  <si>
+    <t>$167.00
+ 1.61 UMA's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencia electrónica o pago en sucursal bancaria. </t>
+  </si>
+  <si>
+    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título IV De la calidad de alumna/alumno, Capítulo II De los derechos y obligaciones de las y los estudiantes.</t>
+  </si>
+  <si>
+    <t>Constancia Escolar UPP</t>
   </si>
   <si>
     <t>1.- Pagar en la Dependencia 
@@ -972,12 +989,85 @@
 4.- Recoger constancia Escolar en el Departamento de Servicios Escolares</t>
   </si>
   <si>
+    <t xml:space="preserve">1.- Comprobante de pago
+2.- Identificación Oficial </t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/serviciosescolares/?page_id=1104</t>
+  </si>
+  <si>
+    <t>1 día hábil</t>
+  </si>
+  <si>
+    <t>$26.00
+0.25 UMA's</t>
+  </si>
+  <si>
+    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título Sexto De la conclusión de estudios, Capítulo I De la documentación que expide el Departamento de Servicios Escolares.</t>
+  </si>
+  <si>
+    <t>Constancia de no adeudos UPP</t>
+  </si>
+  <si>
     <t>1.- Realizar el pago correspondiente.
 2. Solicitar vía correo electrónico la constancia de no adeudo.</t>
   </si>
   <si>
+    <t>1.- Comprobante de pago</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/ver/7429</t>
+  </si>
+  <si>
+    <t>3 día 5min</t>
+  </si>
+  <si>
+    <t>Transferencia electrónica o pago en sucursal bancaria.</t>
+  </si>
+  <si>
+    <t>Periódico oficial del Estado de Hidalgo, Decreto Num. 270, Artículo 56 fracciones I y II  de la Constitución Política del Estado de Hidalgo y 47 de la Ley Estatal de Derechos.</t>
+  </si>
+  <si>
+    <t>Curso propedéutico UPP</t>
+  </si>
+  <si>
+    <t>Aspirantes que desean participar en el proceso de admisión</t>
+  </si>
+  <si>
+    <t>Brindar un servicio de preparación académica para aspirantes interesados/as en ingresar a estudiar las carreras de nivel licenciatura/ingeniería de modalidad cuatrimestral.</t>
+  </si>
+  <si>
     <t>1.- Número de Registro.
 2.- Comprobante de pago.</t>
+  </si>
+  <si>
+    <t>1. Numero de Registro 
+2. Comprobante de pago</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/serviciosescolares/</t>
+  </si>
+  <si>
+    <t>20 minutos</t>
+  </si>
+  <si>
+    <t>$1,750.00      
+ 16.87 UMA's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institución Bancaria (BANORTE) </t>
+  </si>
+  <si>
+    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo l De las Solicitudes de Ingreso.</t>
+  </si>
+  <si>
+    <t>Ficha para Examen de Admisión UPP</t>
+  </si>
+  <si>
+    <t>Al público en general interesados/as en ingresar a estudiar a la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ficha para Examen de Admisión.</t>
   </si>
   <si>
     <t>1.- Número de ficha
@@ -985,84 +1075,92 @@
 3.- 1 Copia digital del certificado del nivel medio superior con un promedio mínimo de 8.0 (para la Licenciatura en Médico Cirujano)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.- Realizar pago. </t>
-  </si>
-  <si>
-    <t>1. Descargar e imprimir desde el SIIUPP la forma de pago   
-2.- Realizar el pago de reinscripción.</t>
-  </si>
-  <si>
-    <t>1.- Realizar pago.
-2. Fotografía digital.</t>
-  </si>
-  <si>
-    <t>1.- Certificado parcial de estudios con promedio mínimo de 8.0,expedido por la institución de procedencia. 
-2.- Copia digital de temarios, plan de estudios, currícula con créditos totales y horas semanales por asignatura de la institución de procedencia, únicamente de las materias cursadas y acreditadas.
-3.- Certificado de nivel medio superior con un promedio mínimo de 7.0 para ingenierías y licenciatura en terapia física, con un promedio mínimo de 8.0 para licenciatura en médico cirujano, expedido por la institución de procedencia. 
-4.- Carta de buena conducta, en la que se incluya el motivo de la baja definitiva, expedida por la institución de procedencia. 
-5.- Comprobante de pago.
-6.- Copia digital de opinión técnico-académica FAVORABLE emitida por el comité Estatal Interinstitucional para la Formación y Capacitación de Recursos Humanos e Investigación para la salud (CIFRHS), del Programa Educativo de la Institución de procedencia. Solo Aspirantes a la Licenciatura en Médico Cirujano.</t>
-  </si>
-  <si>
-    <t>1.- Identificación oficial vigente;
-2.- Una fotografía tamaño infantil blanco y negro o color;
-3.- Agendar cita de terapia física; y
-4.- Recibo de pago.</t>
-  </si>
-  <si>
-    <t>1.- Autorización medica 
-2.- Diagnóstico médico</t>
-  </si>
-  <si>
-    <t>1.- Certificado Médico.
-2.- Comprobante de Pago.</t>
-  </si>
-  <si>
-    <t>1.- Comprobante de pago.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.- Comprobante de pago
-2.- Identificación Oficial </t>
-  </si>
-  <si>
-    <t>1.- Comprobante de pago</t>
-  </si>
-  <si>
-    <t>1. Numero de Registro 
-2. Comprobante de pago</t>
-  </si>
-  <si>
     <t>1.- Número de registro
 2.- Comprobante de pago de examen de admisión
 3.- 1 Copia digital del certificado del nivel medio superior con un promedio mínimo de 7.0 y 8.0 (para la Licenciatura en Médico Cirujano)</t>
   </si>
   <si>
+    <t>1 hora 20  minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+$514
+ 4.96 UMA's
+$1,352.00
+13.03  UMA's</t>
+  </si>
+  <si>
+    <t>Institución Bancaria (BANORTE)</t>
+  </si>
+  <si>
+    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo l De las Solicitudes de Ingreso; Título Segundo, Del Ingreso, Capítulo ll De la Selección de Aspirantes</t>
+  </si>
+  <si>
+    <t>Historial Académico UPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.- Realizar pago. </t>
+  </si>
+  <si>
     <t>1.- Comprobante de pago
 2.- Identificación Oficial</t>
   </si>
   <si>
+    <t>1 día hábil y 10 min</t>
+  </si>
+  <si>
+    <t>Reglamento Académico de Nivel Licenciatura, articulo 5</t>
+  </si>
+  <si>
+    <t>Reisncripción UPP</t>
+  </si>
+  <si>
+    <t>1. Descargar e imprimir desde el SIIUPP la forma de pago   
+2.- Realizar el pago de reinscripción.</t>
+  </si>
+  <si>
     <t>1.- Forma de pago.</t>
   </si>
   <si>
+    <t xml:space="preserve">65min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,719.00  16.57   UMA's
+$4,298.00   41.43 UMA's
+$3,438.00 33.14 UMA's
+$7,366.00  71.01 UMA's </t>
+  </si>
+  <si>
+    <t>Reglamento Académico del Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Cuarto, De la calidad de Alumna/Alumno, Capítulo lll De las Reinscripciones</t>
+  </si>
+  <si>
+    <t>Reposición de Credencial Escolar UPP</t>
+  </si>
+  <si>
+    <t>1.- Realizar pago.
+2. Fotografía digital.</t>
+  </si>
+  <si>
     <t>Comprobante de Pago</t>
   </si>
   <si>
-    <t>Titulación Licenciatura/Ingeniería
-1.- Acta de nacimiento.
-2.- Certificado de bachillerato legalizado.
-3.- Comprobante de pago.</t>
-  </si>
-  <si>
-    <t>1.-Certificado parcial de estudios con promedio mínimo de 8.0.
-2.-Copia digital de temarios, plan de estudios, currícula con créditos totales y horas semanales por asignatura de la institución de procedencia, únicamente de las materias cursadas y acreditadas.
-3.-Certificado de nivel medio superior con un promedio mínimo de 7.0 para ingenierías y licenciatura en terapia física, con un promedio mínimo de 8.0 para licenciatura en médico cirujano.
-4.-Carta de buena conducta, en la que se incluya el motivo de la baja definitiva, expedida por la institución de procedencia.
-5.- Comprobante de pago.
-6. Copia digital de opinión técnico-académica FAVORABLE emitida por el comité Estatal Interinstitucional para la Formación y Capacitación de Recursos Humanos e Investigación para la salud (CIFRHS), del Programa Educativo de la Institución de procedencia. Solo Aspirantes a la Licenciatura en Médico Cirujano.</t>
-  </si>
-  <si>
-    <t>1. Identificación Oficial Vigente
-2. Comprobante de pago</t>
+    <t xml:space="preserve">65 minutos </t>
+  </si>
+  <si>
+    <t>$64.00
+0.62 UMA's</t>
+  </si>
+  <si>
+    <t>Reglamento Académico del Nivel Licenciatura  Y Posgrado Título Sexto de la conclusión de Estudios , Capitulo l de la Documentación que expide el Departamento de Servicios Escolares Artículo 118</t>
+  </si>
+  <si>
+    <t>Titulación Nivel Licenciatura/Ingeniería y Posgrado UPP</t>
+  </si>
+  <si>
+    <t>Egresados/as de Licenciatura/Ingeniería o Posgrado de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificar mediante el Título Profesional, Diploma de Especialidad o Grado Académico la Conclusión de los Estudios. </t>
   </si>
   <si>
     <t>"Requisitos para Titulación Licenciatura/Ingeniería"
@@ -1089,189 +1187,20 @@
 12.- Realizar pago.</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/?page_id=1104</t>
-  </si>
-  <si>
-    <t>https://ruts.hidalgo.gob.mx/ver/7429</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/serviciosescolares/</t>
+    <t>Titulación Licenciatura/Ingeniería
+1.- Acta de nacimiento.
+2.- Certificado de bachillerato legalizado.
+3.- Comprobante de pago.</t>
   </si>
   <si>
     <t>https://ruts.hidalgo.gob.mx/ver/7467</t>
   </si>
   <si>
-    <t>30 minutos</t>
-  </si>
-  <si>
-    <t>1 hora</t>
-  </si>
-  <si>
-    <t>1 hora 10 minutos</t>
-  </si>
-  <si>
-    <t>1 día hábil</t>
-  </si>
-  <si>
-    <t>3 día 5min</t>
-  </si>
-  <si>
-    <t>20 minutos</t>
-  </si>
-  <si>
-    <t>1 hora 20  minutos</t>
-  </si>
-  <si>
-    <t>1 día hábil y 10 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65min </t>
-  </si>
-  <si>
-    <t xml:space="preserve">65 minutos </t>
-  </si>
-  <si>
     <t>40 minutos</t>
   </si>
   <si>
-    <t>30 días</t>
-  </si>
-  <si>
-    <t>1 día hábil, 4 horas y 30 minutos</t>
-  </si>
-  <si>
-    <t>Dirección de Vinculación y Extensión y Centro Ecuestre y de Equinoterapia de la Universidad Politecnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Pachuca- Cd. Sahagún</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Ex hacienda</t>
-  </si>
-  <si>
-    <t>Zempoala</t>
-  </si>
-  <si>
-    <t>No hay domicilio en el extranjero</t>
-  </si>
-  <si>
-    <t>771 547-7 5-10 extensiones 2239, 2300</t>
-  </si>
-  <si>
-    <t>ceetupp@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Lunes a viernes en días hábiles de 9:00 - 14:00 horas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro Ecuestre y de Equinoterapia de la Universidad Politecnica </t>
-  </si>
-  <si>
-    <t>772 547-7 5-10 extensiones 2239, 2300</t>
-  </si>
-  <si>
-    <t>Lunes a viernes en días hábiles de 9:00 a 14:00 horas.</t>
-  </si>
-  <si>
-    <t>Servicios Escolares</t>
-  </si>
-  <si>
-    <t>771-227-36-61, 771-143-68-71, 771 372 8323</t>
-  </si>
-  <si>
-    <t>servescolares@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Lunes a viernes en días hábiles de 8:00 a 16:00 horas.</t>
-  </si>
-  <si>
-    <t>771-547-75-10 extensión 2213</t>
-  </si>
-  <si>
-    <t>771-227-36-61, 771-143-68-71, 771 372 8324</t>
-  </si>
-  <si>
-    <t>771-227-36-61, 771-143-68-71, 771 372 8325</t>
-  </si>
-  <si>
-    <t>771-227-36-61, 771-143-68-71, 771 372 8326</t>
-  </si>
-  <si>
-    <t>771-227-36-61, 771-143-68-71, 771 372 8327</t>
-  </si>
-  <si>
-    <t>771-227-36-61, 771-143-68-71, 771 372 8328</t>
-  </si>
-  <si>
-    <t>771-227-36-61, 771-143-68-71, 771 372 8329</t>
-  </si>
-  <si>
-    <t>771-227-36-61, 771-143-68-71, 771 372 8330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clínica Universitaria de Rehabilitación Integral </t>
-  </si>
-  <si>
-    <t>771 547 7510 Ext 2441</t>
-  </si>
-  <si>
-    <t>curei@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Lunes a viernes en días hábiles de 8:00 a 16:00 horas conforme a calendario escolar UPP. Excepto días de suspensión oficial y días de Consejo Técnico Escolar para Educación Superior (CTEES)</t>
-  </si>
-  <si>
-    <t>Área de caja de la Universidad Politécnica de Pachuca
-Institución Bancaria Banorte al número de cuenta 0654922554
-Clabe Interbancaria si es que es transferencia de otros bancos: 072290006549225544</t>
-  </si>
-  <si>
-    <t>Articulo 3o derecho a la educacion y Salud (artículo 25) Derecho a gozar del más alto nivel posible de salud, sin discriminación por motivos de discapacidad. Habilitación y rehabilitación (artículo 26) Derecho a recibir y ser parte de servicios y programas generales de habilitación y rehabilitación, en particular en los ámbitos de la salud, el empleo, la educación y los servicios sociales</t>
-  </si>
-  <si>
-    <t>Área de caja de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Salud (artículo 25) Derecho a gozar del más alto nivel posible de salud, sin discriminación por motivos de discapacidad. Habilitación y rehabilitación (artículo 26) Derecho a recibir y ser parte de servicios y programas generales de habilitación y rehabilitación, en particular en los ámbitos de la salud, el empleo, la educación y los servicios sociales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transferencia electrónica o pago en sucursal bancaria. </t>
-  </si>
-  <si>
-    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título IV De la calidad de alumna/alumno, Capítulo II De los derechos y obligaciones de las y los estudiantes.</t>
-  </si>
-  <si>
-    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título Sexto De la conclusión de estudios, Capítulo I De la documentación que expide el Departamento de Servicios Escolares.</t>
-  </si>
-  <si>
-    <t>Transferencia electrónica o pago en sucursal bancaria.</t>
-  </si>
-  <si>
-    <t>Periódico oficial del Estado de Hidalgo, Decreto Num. 270, Artículo 56 fracciones I y II  de la Constitución Política del Estado de Hidalgo y 47 de la Ley Estatal de Derechos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institución Bancaria (BANORTE) </t>
-  </si>
-  <si>
-    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo l De las Solicitudes de Ingreso.</t>
-  </si>
-  <si>
-    <t>Institución Bancaria (BANORTE)</t>
-  </si>
-  <si>
-    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo l De las Solicitudes de Ingreso; Título Segundo, Del Ingreso, Capítulo ll De la Selección de Aspirantes</t>
-  </si>
-  <si>
-    <t>Reglamento Académico de Nivel Licenciatura, articulo 5</t>
-  </si>
-  <si>
-    <t>Reglamento Académico del Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Cuarto, De la calidad de Alumna/Alumno, Capítulo lll De las Reinscripciones</t>
-  </si>
-  <si>
-    <t>Reglamento Académico del Nivel Licenciatura  Y Posgrado Título Sexto de la conclusión de Estudios , Capitulo l de la Documentación que expide el Departamento de Servicios Escolares Artículo 118</t>
+    <t xml:space="preserve">$1,352.00 
+13.03 UMA´s </t>
   </si>
   <si>
     <t>Institución bancaria (BANORTE)</t>
@@ -1282,82 +1211,189 @@
 </t>
   </si>
   <si>
-    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título II Del ingreso, Capítulo IV Del reconocimiento de estudios</t>
-  </si>
-  <si>
-    <t>Ley integral para las personas con discapacidad del estado de Hidalgo</t>
-  </si>
-  <si>
-    <t>Afirmativa Ficta</t>
-  </si>
-  <si>
-    <t>https://ruts.hidalgo.gob.mx/</t>
+    <t>Equivalencia de Estudios UPP</t>
+  </si>
+  <si>
+    <t>Reconocer estudios realizados en otra Institución para concluir una Licenciatura o Ingeniería de las que oferta la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>1.- Certificado parcial de estudios con promedio mínimo de 8.0,expedido por la institución de procedencia. 
+2.- Copia digital de temarios, plan de estudios, currícula con créditos totales y horas semanales por asignatura de la institución de procedencia, únicamente de las materias cursadas y acreditadas.
+3.- Certificado de nivel medio superior con un promedio mínimo de 7.0 para ingenierías y licenciatura en terapia física, con un promedio mínimo de 8.0 para licenciatura en médico cirujano, expedido por la institución de procedencia. 
+4.- Carta de buena conducta, en la que se incluya el motivo de la baja definitiva, expedida por la institución de procedencia. 
+5.- Comprobante de pago.
+6.- Copia digital de opinión técnico-académica FAVORABLE emitida por el comité Estatal Interinstitucional para la Formación y Capacitación de Recursos Humanos e Investigación para la salud (CIFRHS), del Programa Educativo de la Institución de procedencia. Solo Aspirantes a la Licenciatura en Médico Cirujano.</t>
+  </si>
+  <si>
+    <t>1.-Certificado parcial de estudios con promedio mínimo de 8.0.
+2.-Copia digital de temarios, plan de estudios, currícula con créditos totales y horas semanales por asignatura de la institución de procedencia, únicamente de las materias cursadas y acreditadas.
+3.-Certificado de nivel medio superior con un promedio mínimo de 7.0 para ingenierías y licenciatura en terapia física, con un promedio mínimo de 8.0 para licenciatura en médico cirujano.
+4.-Carta de buena conducta, en la que se incluya el motivo de la baja definitiva, expedida por la institución de procedencia.
+5.- Comprobante de pago.
+6. Copia digital de opinión técnico-académica FAVORABLE emitida por el comité Estatal Interinstitucional para la Formación y Capacitación de Recursos Humanos e Investigación para la salud (CIFRHS), del Programa Educativo de la Institución de procedencia. Solo Aspirantes a la Licenciatura en Médico Cirujano.</t>
+  </si>
+  <si>
+    <t>30 días</t>
   </si>
   <si>
     <t>$287.00
  2.98 UMA's</t>
   </si>
   <si>
-    <t>$ 2,021.00
-19.48 UMA's</t>
-  </si>
-  <si>
-    <t>$38.00
- 0.37 UMA's</t>
-  </si>
-  <si>
-    <t>$167.00
- 1.61 UMA's</t>
-  </si>
-  <si>
-    <t>$26.00
-0.25 UMA's</t>
-  </si>
-  <si>
-    <t>$1,750.00      
- 16.87 UMA's</t>
-  </si>
-  <si>
-    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
-Servicio Vigente para el ejercicio 2023.</t>
-  </si>
-  <si>
-    <t>Unidad de Transparencia Gubernamental (UPP)</t>
-  </si>
-  <si>
-    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$514
- 4.96 UMA's
-$1,352.00
-13.03  UMA's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,719.00  16.57   UMA's
-$4,298.00   41.43 UMA's
-$3,438.00 33.14 UMA's
-$7,366.00  71.01 UMA's </t>
-  </si>
-  <si>
-    <t>$64.00
-0.62 UMA's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,352.00 
-13.03 UMA´s </t>
+    <t>Reglamento Académico de Nivel Licenciatura de la Universidad Politécnica de Pachuca, Título II Del ingreso, Capítulo IV Del reconocimiento de estudios</t>
+  </si>
+  <si>
+    <t>Clínica Universitaria de Rehabilitación Integral (C.U.R.e.I.) Servicios de Terapia Física UPP</t>
+  </si>
+  <si>
+    <t>Público en general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clínica de rehabilitación enfocada a la prevención, tratamiento y rehabilitación de personas con limitaciones físicas, funcionales e intelectuales, para impulsar la recuperación, potenciación y mantenimiento integral de sus capacidades y así integrar a la persona en su entorno biopsicosocial mejorando su calidad de vida. </t>
+  </si>
+  <si>
+    <t>1.- Identificación oficial vigente;
+2.- Una fotografía tamaño infantil blanco y negro o color;
+3.- Agendar cita de terapia física; y
+4.- Recibo de pago.</t>
+  </si>
+  <si>
+    <t>1. Identificación Oficial Vigente
+2. Comprobante de pago</t>
+  </si>
+  <si>
+    <t>1 día hábil, 4 horas y 30 minutos</t>
   </si>
   <si>
     <t>$64.00
  0.62 UMA´s</t>
+  </si>
+  <si>
+    <t>Ley integral para las personas con discapacidad del estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>Dirección de Vinculación y Extensión y Centro Ecuestre y de Equinoterapia de la Universidad Politecnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Pachuca- Cd. Sahagún</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ex hacienda</t>
+  </si>
+  <si>
+    <t>Zempoala</t>
+  </si>
+  <si>
+    <t>No hay domicilio en el extranjero</t>
+  </si>
+  <si>
+    <t>771 547-7 5-10 extensiones 2239, 2300</t>
+  </si>
+  <si>
+    <t>ceetupp@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Lunes a viernes en días hábiles de 9:00 - 14:00 horas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Ecuestre y de Equinoterapia de la Universidad Politecnica </t>
+  </si>
+  <si>
+    <t>772 547-7 5-10 extensiones 2239, 2300</t>
+  </si>
+  <si>
+    <t>Lunes a viernes en días hábiles de 9:00 a 14:00 horas.</t>
+  </si>
+  <si>
+    <t>Servicios Escolares</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8323</t>
+  </si>
+  <si>
+    <t>servescolares@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Lunes a viernes en días hábiles de 8:00 a 16:00 horas.</t>
+  </si>
+  <si>
+    <t>771-547-75-10 extensión 2213</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8324</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8325</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8326</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8327</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8328</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8329</t>
+  </si>
+  <si>
+    <t>771-227-36-61, 771-143-68-71, 771 372 8330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clínica Universitaria de Rehabilitación Integral </t>
+  </si>
+  <si>
+    <t>771 547 7510 Ext 2441</t>
+  </si>
+  <si>
+    <t>curei@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Lunes a viernes en días hábiles de 8:00 a 16:00 horas conforme a calendario escolar UPP. Excepto días de suspensión oficial y días de Consejo Técnico Escolar para Educación Superior (CTEES)</t>
+  </si>
+  <si>
+    <t>Avalar el avance académico de la población estudiantil para los fines que requiera.</t>
+  </si>
+  <si>
+    <t>Avalar mediante un documento oficial la situación académica actual de la población estudiantil.</t>
+  </si>
+  <si>
+    <t>Avalar que no existe registro de adeudo alguno en la UPPachuca para los fines que requiera la población estudiantil.</t>
+  </si>
+  <si>
+    <t>Avalar mediante un documento oficial las calificaciones obtenidas de la población estudiantil a la fecha de emisión del documento.</t>
+  </si>
+  <si>
+    <t>Informar ala población estudiantil de la Universidad Politécnica de Pachuca sobre el proceso de reinscripción para dar continuidad a sus estudios.</t>
+  </si>
+  <si>
+    <t>Reposición de credencial que te acredita como  población estudiantil de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Población estudiantil</t>
+  </si>
+  <si>
+    <t>Población estudiantil activos de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Población estudiantil aspirante que desea  concluir sus estudios de nivel licenciatura.</t>
+  </si>
+  <si>
+    <t>Población estudiantil de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Personal Médico, Personal Psicologico, Personal Especializado en Equitación, Personal Docente, profesionales de la educación y todas aquellas personas vinculadas a los caballos y las personas con discapacidad física, psicológica y educativa, interesados en la equinoterapia como método de rehabilitación.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1379,10 +1415,12 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1392,28 +1430,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF212529"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1435,14 +1483,8 @@
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1465,21 +1507,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1487,89 +1520,70 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1631,7 +1645,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1664,9 +1678,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1699,6 +1730,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1874,47 +1922,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.7109375" customWidth="1"/>
-    <col min="7" max="7" width="61.85546875" customWidth="1"/>
+    <col min="6" max="6" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="122.5703125" customWidth="1"/>
-    <col min="10" max="10" width="85.42578125" customWidth="1"/>
+    <col min="9" max="9" width="87" customWidth="1"/>
+    <col min="10" max="10" width="65.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="104" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="89" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="103.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="102.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="133.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="81.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="162.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="72.28515625" customWidth="1"/>
-    <col min="21" max="21" width="58.85546875" customWidth="1"/>
-    <col min="22" max="22" width="88" customWidth="1"/>
-    <col min="23" max="23" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="93.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="126" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="206.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40" customWidth="1"/>
+    <col min="21" max="21" width="40.140625" customWidth="1"/>
+    <col min="22" max="22" width="64" customWidth="1"/>
+    <col min="23" max="23" width="110.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="137.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="116.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="46" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="80.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="42.140625" customWidth="1"/>
+    <col min="32" max="32" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
@@ -1923,40 +1971,38 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="31" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" spans="1:32" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:32" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="33" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1992,7 +2038,7 @@
       <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
       <c r="M4" t="s">
@@ -2090,7 +2136,7 @@
       <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" t="s">
         <v>26</v>
       </c>
       <c r="M5" t="s">
@@ -2155,40 +2201,40 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
     </row>
     <row r="7" spans="1:32" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2224,7 +2270,7 @@
       <c r="K7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -2288,1066 +2334,1066 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:32" ht="100.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2023</v>
       </c>
-      <c r="B8" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="9">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="9">
+        <v>2</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="9">
+        <v>3</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="T10" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="L11" s="7">
+        <v>45014</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="9">
+        <v>4</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="3" t="s">
+      <c r="K12" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="L12" s="7">
+        <v>45014</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="9">
+        <v>5</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L13" s="7">
+        <v>45014</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="9">
+        <v>6</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="100.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U8" s="3" t="s">
+      <c r="J14" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="9">
+        <v>7</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF14" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="9">
+        <v>8</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF15" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="9">
+        <v>9</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF16" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="9">
+        <v>10</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF17" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="L18" s="7">
+        <v>45014</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="9">
+        <v>11</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="9">
+        <v>12</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AF19" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45107</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="G20" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE8" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="3">
-        <v>2</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U9" s="3" t="s">
+      <c r="H20" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="J20" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD9" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE9" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF9" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C10" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="3">
-        <v>3</v>
-      </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U10" s="3" t="s">
+      <c r="K20" s="19"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD10" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE10" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF10" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C11" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="L11" s="25">
-        <v>45014</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="3">
-        <v>4</v>
-      </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD11" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE11" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF11" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C12" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="L12" s="25">
-        <v>45014</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="3">
-        <v>5</v>
-      </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC12" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD12" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE12" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="L13" s="25">
-        <v>45014</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="3">
-        <v>6</v>
-      </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD13" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE13" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF13" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C14" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="3">
-        <v>7</v>
-      </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC14" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD14" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE14" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF14" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B15" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C15" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="3">
-        <v>8</v>
-      </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD15" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE15" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C16" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="3">
-        <v>9</v>
-      </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD16" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE16" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF16" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C17" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="3">
-        <v>10</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD17" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE17" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF17" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="360" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B18" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C18" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="L18" s="25">
-        <v>45014</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="3">
-        <v>11</v>
-      </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD18" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE18" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF18" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B19" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C19" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="3">
-        <v>12</v>
-      </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC19" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD19" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE19" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AF19" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B20" s="9">
-        <v>44927</v>
-      </c>
-      <c r="C20" s="9">
-        <v>45016</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="6">
         <v>13</v>
       </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC20" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD20" s="9">
-        <v>45026</v>
-      </c>
-      <c r="AE20" s="9">
-        <v>45026</v>
+      <c r="R20" s="6"/>
+      <c r="S20" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>45117</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>45117</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>402</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A6:AF6"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G2:J2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E9 E21:E35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E9 E21:E126" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_14</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K12" r:id="rId1"/>
-    <hyperlink ref="K13" r:id="rId2"/>
-    <hyperlink ref="K18" r:id="rId3"/>
-    <hyperlink ref="K11" r:id="rId4"/>
-    <hyperlink ref="V13" r:id="rId5" display="https://drive.google.com/file/d/1XsxPilRGjfcCii89kEATo4SLMtWSXW6b/view?usp=sharing"/>
-    <hyperlink ref="AB8" r:id="rId6"/>
-    <hyperlink ref="AB9:AB20" r:id="rId7" display="https://ruts.hidalgo.gob.mx/"/>
+    <hyperlink ref="K12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V13" r:id="rId5" display="https://drive.google.com/file/d/1XsxPilRGjfcCii89kEATo4SLMtWSXW6b/view?usp=sharing" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AB8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AB9:AB20" r:id="rId7" display="https://ruts.hidalgo.gob.mx/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3356,7 +3402,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3401,7 +3447,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -3501,7 +3547,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -3520,20 +3566,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -3600,52 +3646,52 @@
     </row>
     <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="O2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3653,16 +3699,16 @@
         <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>104</v>
@@ -3671,13 +3717,13 @@
         <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>109</v>
@@ -3686,16 +3732,16 @@
         <v>110</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>115</v>
@@ -3703,13 +3749,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D77">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>Hidden_1_Tabla_3507013</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H77">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>Hidden_2_Tabla_3507017</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O77">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O201" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>Hidden_3_Tabla_35070114</formula1>
     </dataValidation>
   </dataValidations>
@@ -3718,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3787,7 +3833,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -3837,7 +3883,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -3861,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4079,7 +4125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4088,7 +4134,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4133,7 +4179,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -4233,7 +4279,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -4252,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4275,11 +4321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="P3" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4301,8 +4347,8 @@
     <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="99.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="60.85546875" customWidth="1"/>
+    <col min="18" max="18" width="153.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -4477,781 +4523,781 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" s="21">
         <v>1</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K4" s="21">
         <v>83</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="L4" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M4" s="21">
         <v>13</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="21">
         <v>43830</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>354</v>
+      <c r="P4" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I5" s="21">
         <v>1</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="J5" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K5" s="21">
         <v>83</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="L5" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M5" s="21">
         <v>13</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="21">
         <v>43830</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>357</v>
+      <c r="P5" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I6" s="21">
         <v>1</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K6" s="21">
         <v>83</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="L6" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M6" s="21">
         <v>13</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="21">
         <v>43830</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>361</v>
+      <c r="P6" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" s="21">
         <v>1</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K7" s="21">
         <v>83</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="L7" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M7" s="21">
         <v>13</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="21">
         <v>43830</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>361</v>
+      <c r="P7" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="21">
         <v>1</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K8" s="21">
         <v>83</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="L8" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M8" s="21">
         <v>13</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="21">
         <v>43830</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>361</v>
+      <c r="P8" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="H9" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I9" s="21">
         <v>1</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K9" s="21">
         <v>83</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="L9" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M9" s="21">
         <v>13</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="21">
         <v>43830</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>361</v>
+      <c r="P9" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="21">
         <v>1</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K10" s="21">
         <v>83</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="L10" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M10" s="21">
         <v>13</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="21">
         <v>43830</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>361</v>
+      <c r="P10" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I11" s="21">
         <v>1</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="J11" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="21">
         <v>83</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="L11" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M11" s="21">
         <v>13</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="21">
         <v>43830</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>361</v>
+      <c r="P11" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" s="21">
         <v>1</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K12" s="21">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="L12" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M12" s="21">
         <v>13</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="21">
         <v>43830</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>361</v>
+      <c r="P12" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="H13" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="21">
         <v>1</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K13" s="21">
         <v>83</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="L13" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M13" s="21">
         <v>13</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="21">
         <v>43830</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>361</v>
+      <c r="P13" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="H14" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="21">
         <v>1</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J14" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" s="21">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="L14" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M14" s="21">
         <v>13</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="21">
         <v>43830</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>361</v>
+      <c r="P14" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="D15" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="H15" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15" s="21">
         <v>1</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="J15" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K15" s="21">
         <v>83</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="L15" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M15" s="21">
         <v>13</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="21">
         <v>43830</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="P15" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="D16" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="H16" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I16" s="21">
         <v>1</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J16" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K16" s="21">
         <v>83</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="L16" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="M16" s="21">
         <v>13</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="21">
         <v>43830</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>372</v>
+      <c r="P16" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C201" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Hidden_1_Tabla_3507102</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>Hidden_2_Tabla_3507106</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N201" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>Hidden_3_Tabla_35071013</formula1>
     </dataValidation>
   </dataValidations>
@@ -5260,7 +5306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5393,7 +5439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5611,7 +5657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5784,31 +5830,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="100" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="69.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5922,48 +5966,48 @@
         <v>232</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Hidden_1_Tabla_5660933</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>Hidden_2_Tabla_5660937</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4:O201" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>Hidden_3_Tabla_56609314</formula1>
     </dataValidation>
   </dataValidations>
@@ -5972,7 +6016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6041,7 +6085,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -6091,7 +6135,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -6115,7 +6159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
